--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="598">
   <si>
     <t>Field</t>
   </si>
@@ -670,9 +670,6 @@
     <t>BT-502</t>
   </si>
   <si>
-    <t>Organisation Contact Point</t>
-  </si>
-  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/CONTACT_POINT</t>
   </si>
   <si>
@@ -1300,6 +1297,9 @@
     </r>
   </si>
   <si>
+    <t>Organisation Contact Point</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/CONTACT_POINT</t>
   </si>
   <si>
@@ -3154,12 +3154,6 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT</t>
-  </si>
-  <si>
-    <t>epo:Notice / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:refersToLot ?value .</t>
   </si>
   <si>
     <t>epo:Procedure / epo:Lot</t>
@@ -4255,7 +4249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4328,11 +4322,11 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -4342,6 +4336,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4362,6 +4359,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -4464,9 +4464,6 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -4475,6 +4472,9 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4558,6 +4558,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
@@ -8096,25 +8099,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -8134,27 +8137,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="36" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -8166,25 +8169,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="39" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -8196,20 +8199,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -8220,20 +8223,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -8244,26 +8247,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -8274,26 +8277,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -8304,32 +8307,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -8340,32 +8343,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -8376,10 +8379,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -8388,18 +8391,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -8410,10 +8413,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8422,18 +8425,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -8444,32 +8447,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -8480,10 +8483,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -8492,18 +8495,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -8514,30 +8517,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -8548,32 +8551,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="36" t="s">
+      <c r="H16" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -8584,30 +8587,30 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="C17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -8618,30 +8621,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="C18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -8652,30 +8655,30 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="C19" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="36"/>
+      <c r="G19" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -8686,20 +8689,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -8710,30 +8713,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="C21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="E21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -8744,30 +8747,30 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -8778,103 +8781,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="43" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="55"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8884,33 +8887,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -8920,10 +8923,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -8932,18 +8935,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -8954,10 +8957,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="48" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -8966,18 +8969,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -8988,54 +8991,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9044,18 +9047,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -9066,31 +9069,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="55"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="57"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -9100,32 +9103,32 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="47" t="s">
+      <c r="F32" s="36"/>
+      <c r="G32" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="36"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -9136,30 +9139,30 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="C33" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="48" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -9170,30 +9173,30 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="C34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="47" t="s">
+      <c r="F34" s="36"/>
+      <c r="G34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -9204,62 +9207,62 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" s="57" t="s">
+      <c r="F35" s="36"/>
+      <c r="G35" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>141</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -9270,31 +9273,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="C37" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="D37" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H37" s="60" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="55"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -9304,29 +9307,29 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="C38" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="47" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -9338,10 +9341,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="41" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="4"/>
@@ -9350,7 +9353,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -9362,67 +9365,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="45"/>
+      <c r="G40" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
     </row>
     <row r="41">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="37"/>
+      <c r="G41" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="39" t="s">
         <v>198</v>
       </c>
       <c r="J41" s="7"/>
@@ -9436,25 +9439,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="4" t="s">
+      <c r="F42" s="45"/>
+      <c r="G42" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -9466,24 +9469,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="41" t="s">
         <v>205</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="61" t="s">
+      <c r="G43" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="63" t="s">
         <v>209</v>
       </c>
       <c r="I43" s="7"/>
@@ -9498,24 +9501,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47" t="s">
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47" t="s">
+      <c r="F44" s="49"/>
+      <c r="G44" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="47" t="s">
+      <c r="H44" s="49" t="s">
         <v>215</v>
       </c>
       <c r="I44" s="7"/>
@@ -9530,26 +9533,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="47" t="s">
+      <c r="G45" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="47" t="s">
+      <c r="H45" s="49" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="7"/>
@@ -9564,24 +9567,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57" t="s">
+      <c r="F46" s="59"/>
+      <c r="G46" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="65" t="s">
         <v>226</v>
       </c>
       <c r="I46" s="7"/>
@@ -9596,26 +9599,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="49"/>
+      <c r="E47" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="47" t="s">
+      <c r="G47" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="49" t="s">
         <v>231</v>
       </c>
       <c r="I47" s="4"/>
@@ -9630,16 +9633,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -9654,10 +9657,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="54" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -9668,50 +9671,50 @@
         <v>237</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="61" t="s">
+      <c r="G49" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
     </row>
     <row r="50">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="67" t="s">
+      <c r="D50" s="68"/>
+      <c r="E50" s="69" t="s">
         <v>237</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="61" t="s">
+      <c r="G50" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="61" t="s">
+      <c r="H50" s="63" t="s">
         <v>239</v>
       </c>
       <c r="I50" s="7"/>
@@ -9726,10 +9729,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="54" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -9740,15 +9743,15 @@
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="70" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="55"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -9758,10 +9761,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -9774,13 +9777,13 @@
         <v>244</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="68" t="s">
+      <c r="G52" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="I52" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -9794,29 +9797,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E53" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="68" t="s">
+      <c r="F53" s="49"/>
+      <c r="G53" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -9830,10 +9833,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="72" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -9846,10 +9849,10 @@
         <v>250</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="74" t="s">
+      <c r="H54" s="75" t="s">
         <v>251</v>
       </c>
       <c r="I54" s="7"/>
@@ -9864,10 +9867,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="72" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -9880,10 +9883,10 @@
         <v>253</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="73" t="s">
+      <c r="G55" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="74" t="s">
+      <c r="H55" s="75" t="s">
         <v>254</v>
       </c>
       <c r="I55" s="7"/>
@@ -9898,28 +9901,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="73" t="s">
         <v>258</v>
       </c>
       <c r="I56" s="7"/>
@@ -9934,10 +9937,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -9950,10 +9953,10 @@
         <v>260</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="73" t="s">
         <v>261</v>
       </c>
       <c r="I57" s="7"/>
@@ -9968,10 +9971,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="72" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -9984,10 +9987,10 @@
         <v>263</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="73" t="s">
         <v>264</v>
       </c>
       <c r="I58" s="7"/>
@@ -10002,29 +10005,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="72" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" s="71" t="s">
+      <c r="G59" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="I59" s="72" t="s">
+      <c r="I59" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -10038,26 +10041,26 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>269</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H60" s="71" t="s">
+      <c r="G60" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="73" t="s">
         <v>270</v>
       </c>
       <c r="I60" s="7"/>
@@ -10072,26 +10075,26 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>272</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="71" t="s">
+      <c r="G61" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="73" t="s">
         <v>273</v>
       </c>
       <c r="I61" s="7"/>
@@ -10106,26 +10109,26 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>275</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="71" t="s">
+      <c r="G62" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="73" t="s">
         <v>276</v>
       </c>
       <c r="I62" s="7"/>
@@ -10140,11 +10143,11 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="71" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="70" t="s">
-        <v>142</v>
+      <c r="B63" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -10164,31 +10167,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="D64" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D64" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="76" t="s">
+      <c r="F64" s="77"/>
+      <c r="G64" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -10198,10 +10201,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="48" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="4"/>
@@ -10222,24 +10225,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="54" t="s">
         <v>284</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="61" t="s">
+      <c r="F66" s="79"/>
+      <c r="G66" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="63" t="s">
         <v>288</v>
       </c>
       <c r="I66" s="7"/>
@@ -10254,24 +10257,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="54" t="s">
         <v>290</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="61" t="s">
+      <c r="F67" s="79"/>
+      <c r="G67" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -10286,27 +10289,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="81" t="s">
         <v>290</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="80" t="s">
+      <c r="E68" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="81"/>
-      <c r="G68" s="82" t="s">
+      <c r="F68" s="83"/>
+      <c r="G68" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="84" t="s">
         <v>239</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="72" t="s">
+      <c r="K68" s="39" t="s">
         <v>293</v>
       </c>
       <c r="L68" s="28"/>
@@ -10318,24 +10321,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="54" t="s">
         <v>295</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="61" t="s">
+      <c r="F69" s="79"/>
+      <c r="G69" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="61" t="s">
+      <c r="H69" s="63" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -10350,29 +10353,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="61" t="s">
+      <c r="F70" s="79"/>
+      <c r="G70" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="61" t="s">
+      <c r="H70" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="72" t="s">
+      <c r="I70" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -10386,29 +10389,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="79"/>
+      <c r="G71" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="61" t="s">
+      <c r="H71" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="72" t="s">
+      <c r="I71" s="39" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -10422,26 +10425,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="F72" s="81"/>
-      <c r="G72" s="61" t="s">
+      <c r="F72" s="83"/>
+      <c r="G72" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="63" t="s">
         <v>305</v>
       </c>
       <c r="I72" s="7"/>
@@ -10456,26 +10459,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="71" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="61" t="s">
+      <c r="F73" s="83"/>
+      <c r="G73" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="85" t="s">
         <v>308</v>
       </c>
       <c r="I73" s="7"/>
@@ -10490,28 +10493,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="F74" s="61" t="s">
+      <c r="F74" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="G74" s="61" t="s">
+      <c r="G74" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="85" t="s">
         <v>312</v>
       </c>
       <c r="I74" s="7"/>
@@ -10526,26 +10529,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="61" t="s">
+      <c r="F75" s="79"/>
+      <c r="G75" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="61" t="s">
+      <c r="H75" s="63" t="s">
         <v>315</v>
       </c>
       <c r="I75" s="7"/>
@@ -10560,26 +10563,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="71" t="s">
         <v>316</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="35" t="s">
+      <c r="D76" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="61" t="s">
+      <c r="F76" s="79"/>
+      <c r="G76" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="83" t="s">
+      <c r="H76" s="85" t="s">
         <v>318</v>
       </c>
       <c r="I76" s="7"/>
@@ -10594,29 +10597,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E77" s="61" t="s">
+      <c r="D77" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H77" s="83" t="s">
+      <c r="F77" s="83"/>
+      <c r="G77" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H77" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="I77" s="72" t="s">
+      <c r="I77" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -10630,26 +10633,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="D78" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78" s="83" t="s">
+      <c r="F78" s="79"/>
+      <c r="G78" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" s="85" t="s">
         <v>324</v>
       </c>
       <c r="I78" s="7"/>
@@ -10664,26 +10667,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="D79" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="61" t="s">
+      <c r="F79" s="79"/>
+      <c r="G79" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H79" s="63" t="s">
         <v>327</v>
       </c>
       <c r="I79" s="7"/>
@@ -10698,26 +10701,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="D80" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D80" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="61" t="s">
+      <c r="E80" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="77"/>
-      <c r="G80" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H80" s="61" t="s">
+      <c r="F80" s="79"/>
+      <c r="G80" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H80" s="63" t="s">
         <v>330</v>
       </c>
       <c r="I80" s="7"/>
@@ -10732,18 +10735,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="70" t="s">
-        <v>142</v>
+      <c r="B81" s="72" t="s">
+        <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -10756,26 +10759,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="D82" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="77"/>
-      <c r="G82" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="61" t="s">
+      <c r="F82" s="79"/>
+      <c r="G82" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H82" s="63" t="s">
         <v>334</v>
       </c>
       <c r="I82" s="7"/>
@@ -10790,24 +10793,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
+      <c r="D83" s="49"/>
+      <c r="E83" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F83" s="57"/>
-      <c r="G83" s="47" t="s">
+      <c r="F83" s="59"/>
+      <c r="G83" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="47" t="s">
+      <c r="H83" s="49" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -10822,24 +10825,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B84" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="C84" s="89" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="87"/>
-      <c r="E84" s="88" t="s">
+      <c r="D84" s="89"/>
+      <c r="E84" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87" t="s">
+      <c r="F84" s="37"/>
+      <c r="G84" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="87" t="s">
+      <c r="H84" s="89" t="s">
         <v>342</v>
       </c>
       <c r="I84" s="7"/>
@@ -10854,10 +10857,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>344</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -10866,19 +10869,19 @@
       <c r="D85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="42" t="s">
         <v>347</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H85" s="35" t="s">
+      <c r="H85" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7" t="s">
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39" t="s">
         <v>350</v>
       </c>
       <c r="L85" s="28"/>
@@ -10890,20 +10893,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="46"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
+      <c r="F86" s="36"/>
+      <c r="G86" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="36" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -10918,10 +10921,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="41" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -10930,37 +10933,37 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="89" t="s">
+      <c r="E87" s="91" t="s">
         <v>359</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="72" t="s">
+      <c r="H87" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7" t="s">
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="46"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
+      <c r="F88" s="36"/>
+      <c r="G88" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="35" t="s">
+      <c r="H88" s="36" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -10968,10 +10971,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="41" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -10980,46 +10983,46 @@
       <c r="D89" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="42" t="s">
         <v>367</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H89" s="35" t="s">
+      <c r="H89" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="46"/>
+      <c r="B90" s="48"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="36" t="s">
         <v>370</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="35" t="s">
+      <c r="H90" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="92" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
@@ -11033,27 +11036,27 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="41" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -11062,56 +11065,56 @@
       <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7" t="s">
+      <c r="F93" s="39"/>
+      <c r="G93" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="72" t="s">
+      <c r="H93" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
     </row>
     <row r="94">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="E94" s="44" t="s">
+      <c r="E94" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44" t="s">
+      <c r="F94" s="46"/>
+      <c r="G94" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="44" t="s">
+      <c r="H94" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="59" t="s">
+      <c r="I94" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="55"/>
+      <c r="J94" s="57"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B95" s="48" t="s">
         <v>389</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -11120,14 +11123,14 @@
       <c r="D95" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4" t="s">
+      <c r="F95" s="36"/>
+      <c r="G95" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="61" t="s">
+      <c r="H95" s="63" t="s">
         <v>394</v>
       </c>
       <c r="I95" s="7"/>
@@ -11135,10 +11138,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="54" t="s">
         <v>396</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -11147,23 +11150,23 @@
       <c r="D96" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="35"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="39" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="48" t="s">
         <v>402</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -11172,14 +11175,14 @@
       <c r="D97" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="36" t="s">
         <v>405</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4" t="s">
+      <c r="F97" s="36"/>
+      <c r="G97" s="36" t="s">
         <v>406</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="36" t="s">
         <v>407</v>
       </c>
       <c r="I97" s="7"/>
@@ -11187,57 +11190,53 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="40" t="s">
+      <c r="E98" s="42" t="s">
         <v>409</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H98" s="35" t="s">
-        <v>411</v>
-      </c>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="93" t="s">
         <v>408</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="42" t="s">
         <v>409</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="H99" s="61" t="s">
-        <v>413</v>
+      <c r="G99" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="H99" s="63" t="s">
+        <v>411</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="B100" s="46" t="s">
-        <v>415</v>
+      <c r="A100" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>413</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -11250,10 +11249,10 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="B101" s="52" t="s">
+      <c r="A101" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="54" t="s">
         <v>389</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -11262,25 +11261,25 @@
       <c r="D101" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="H101" s="36" t="s">
         <v>417</v>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>419</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="B102" s="52" t="s">
+      <c r="A102" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B102" s="54" t="s">
         <v>396</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -11289,24 +11288,24 @@
       <c r="D102" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="35"/>
+      <c r="E102" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="7" t="s">
+      <c r="K102" s="39" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="B103" s="46" t="s">
-        <v>423</v>
+      <c r="A103" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>421</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -11319,127 +11318,127 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B104" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="E104" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="F104" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="G104" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="H104" s="95" t="s">
         <v>428</v>
-      </c>
-      <c r="G104" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="H104" s="93" t="s">
-        <v>430</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="D105" s="49" t="s">
         <v>432</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="E105" s="36" t="s">
         <v>433</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="F105" s="36"/>
+      <c r="G105" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="H105" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F105" s="4"/>
-      <c r="G105" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="H105" s="94" t="s">
-        <v>437</v>
-      </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="B106" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="C106" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="D106" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="F106" s="39"/>
+      <c r="G106" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D106" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="7" t="s">
+      <c r="H106" s="97" t="s">
         <v>441</v>
       </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H106" s="95" t="s">
-        <v>443</v>
-      </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="B107" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="C107" s="36" t="s">
+      <c r="D107" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="D107" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H107" s="96" t="s">
-        <v>445</v>
-      </c>
-      <c r="I107" s="7" t="s">
+      <c r="H107" s="98" t="s">
+        <v>443</v>
+      </c>
+      <c r="I107" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B108" s="34" t="s">
-        <v>447</v>
+      <c r="A108" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>445</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -11452,56 +11451,56 @@
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="C109" s="49" t="s">
         <v>448</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="D109" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="E109" s="99" t="s">
         <v>450</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="F109" s="99"/>
+      <c r="G109" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="H109" s="101" t="s">
         <v>451</v>
       </c>
-      <c r="E109" s="97" t="s">
-        <v>452</v>
-      </c>
-      <c r="F109" s="97"/>
-      <c r="G109" s="98" t="s">
-        <v>379</v>
-      </c>
-      <c r="H109" s="99" t="s">
-        <v>453</v>
-      </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="39" t="s">
         <v>71</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C110" s="102" t="s">
         <v>454</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="D110" s="102" t="s">
         <v>455</v>
       </c>
-      <c r="C110" s="100" t="s">
+      <c r="E110" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="D110" s="100" t="s">
+      <c r="F110" s="103"/>
+      <c r="G110" s="36" t="s">
         <v>457</v>
       </c>
-      <c r="E110" s="101" t="s">
+      <c r="H110" s="104" t="s">
         <v>458</v>
-      </c>
-      <c r="F110" s="101"/>
-      <c r="G110" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="H110" s="102" t="s">
-        <v>460</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -11569,22 +11568,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="106" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11595,277 +11594,277 @@
       <c r="B2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="39" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>461</v>
+      <c r="F2" s="36" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="F3" s="36" t="s">
         <v>464</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>468</v>
+      <c r="D4" s="59"/>
+      <c r="E4" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="39" t="s">
         <v>398</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
+        <v>419</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="D6" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="E6" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="36" t="s">
         <v>478</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="F8" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="72" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="84" t="s">
         <v>484</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="B9" s="84" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="82" t="s">
+      <c r="C9" s="84" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84" t="s">
         <v>486</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="82" t="s">
+      <c r="F9" s="84" t="s">
         <v>483</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82" t="s">
-        <v>488</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="108" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="F10" s="39" t="s">
         <v>491</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="72" t="s">
-        <v>492</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="D11" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="E11" s="72" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="83" t="s">
         <v>498</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="B12" s="84" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="81" t="s">
+      <c r="C12" s="83" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="D12" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="E12" s="84" t="s">
         <v>502</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="F12" s="109" t="s">
         <v>503</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="59" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="97" t="s">
+      <c r="E14" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="57" t="s">
+      <c r="F14" s="110" t="s">
         <v>511</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>512</v>
-      </c>
-      <c r="F14" s="107" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="15">
@@ -15846,108 +15845,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="114" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B3" s="113" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="111" t="s">
+    <row r="4">
+      <c r="A4" s="115" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="110" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="116" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="113" t="s">
+    <row r="7">
+      <c r="B7" s="113" t="s">
         <v>519</v>
       </c>
-      <c r="B6" s="110" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="113"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="113"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="116" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="110" t="s">
+    <row r="11">
+      <c r="A11" s="116" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="110"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="110"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="113" t="s">
+      <c r="B11" s="117" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="113" t="s">
+    <row r="12">
+      <c r="B12" s="118" t="s">
         <v>523</v>
       </c>
-      <c r="B11" s="114" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="119"/>
+      <c r="B13" s="120" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="115" t="s">
+    <row r="14">
+      <c r="B14" s="121" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117" t="s">
+    <row r="15">
+      <c r="B15" s="122" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="118" t="s">
+    <row r="16">
+      <c r="B16" s="123" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="119" t="s">
+    <row r="17">
+      <c r="A17" s="116"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="116" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="120" t="s">
+      <c r="B18" s="124" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="113"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="113" t="s">
-        <v>530</v>
-      </c>
-      <c r="B18" s="121" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B19" s="125"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="116" t="s">
+        <v>531</v>
+      </c>
+      <c r="B21" s="126" t="s">
         <v>532</v>
-      </c>
-      <c r="B19" s="122"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="113" t="s">
-        <v>533</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -15972,48 +15971,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="127" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="113" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="124" t="s">
+    <row r="4">
+      <c r="A4" s="127" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="110" t="s">
+    <row r="5">
+      <c r="A5" s="113" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="124" t="s">
+    <row r="6">
+      <c r="A6" s="113" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="110" t="s">
+    <row r="7">
+      <c r="A7" s="113" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="110" t="s">
+    <row r="8">
+      <c r="A8" s="127" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="110" t="s">
+    <row r="9">
+      <c r="A9" s="113" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="124" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="110" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -16039,48 +16038,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B1" s="125" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="129" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="126" t="s">
-        <v>545</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -16099,7 +16098,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="114"/>
+      <c r="A1" s="117"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16123,40 +16122,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
-        <v>553</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>554</v>
-      </c>
-      <c r="E1" s="128" t="s">
+      <c r="A1" s="130" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" s="131" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="35" t="s">
+      <c r="C3" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>560</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -16165,14 +16164,14 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>560</v>
       </c>
+      <c r="B4" s="36" t="s">
+        <v>558</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16181,288 +16180,288 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="E5" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="132" t="s">
         <v>577</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="B9" s="133" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="129" t="s">
+      <c r="C9" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="133" t="s">
         <v>579</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="132" t="s">
         <v>580</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D9" s="130" t="s">
+      <c r="B10" s="133" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="129" t="s">
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="132" t="s">
         <v>582</v>
       </c>
-      <c r="B10" s="130" t="s">
-        <v>580</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D10" s="130" t="s">
+      <c r="B11" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="129" t="s">
+      <c r="C11" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D11" s="133" t="s">
         <v>584</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
+      <c r="U11" s="134"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="132" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D11" s="130" t="s">
+      <c r="B12" s="133" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="133" t="s">
         <v>586</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="129" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="134"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="132" t="s">
         <v>587</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D12" s="130" t="s">
+      <c r="B13" s="132" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>588</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="129" t="s">
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="132" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="129" t="s">
-        <v>564</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D13" s="130" t="s">
+      <c r="B14" s="132" t="s">
+        <v>562</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" s="133" t="s">
         <v>590</v>
       </c>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="129" t="s">
-        <v>591</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="130" t="s">
-        <v>561</v>
-      </c>
-      <c r="D14" s="130" t="s">
-        <v>592</v>
-      </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="134"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="134"/>
+      <c r="Z14" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16490,52 +16489,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="116" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="113" t="s">
+      <c r="B2" s="116" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="116" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="D2" s="116" t="s">
         <v>556</v>
       </c>
-      <c r="C2" s="113" t="s">
-        <v>557</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>558</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="113" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="113" t="s">
         <v>593</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B4" s="113" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="110" t="s">
+    <row r="5">
+      <c r="A5" s="113" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B5" s="113" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="110" t="s">
+      <c r="C5" s="136" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>597</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>598</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>596</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -4249,7 +4249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4325,8 +4325,8 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -4336,9 +4336,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -8099,25 +8096,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -8137,27 +8134,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -8169,25 +8166,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -8199,20 +8196,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -8223,20 +8220,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -8247,26 +8244,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -8277,26 +8274,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -8307,32 +8304,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -8343,32 +8340,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -8379,10 +8376,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -8391,18 +8388,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -8413,10 +8410,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -8425,18 +8422,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -8447,32 +8444,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -8483,10 +8480,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -8495,18 +8492,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -8517,30 +8514,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -8551,32 +8548,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -8587,10 +8584,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -8599,18 +8596,18 @@
       <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -8621,10 +8618,10 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -8633,18 +8630,18 @@
       <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -8655,10 +8652,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -8667,18 +8664,18 @@
       <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -8689,20 +8686,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -8713,30 +8710,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -8747,10 +8744,10 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8759,18 +8756,18 @@
       <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -8781,103 +8778,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8887,33 +8884,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="57"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -8923,10 +8920,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -8935,18 +8932,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -8957,10 +8954,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -8969,18 +8966,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -8991,54 +8988,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -9047,18 +9044,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -9069,31 +9066,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="57"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -9103,10 +9100,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -9115,20 +9112,20 @@
       <c r="D32" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -9139,10 +9136,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -9151,18 +9148,18 @@
       <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -9173,10 +9170,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -9185,18 +9182,18 @@
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -9207,10 +9204,10 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -9219,50 +9216,50 @@
       <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="58" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -9273,31 +9270,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="57"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -9307,10 +9304,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -9319,17 +9316,17 @@
       <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -9341,10 +9338,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>185</v>
       </c>
       <c r="C39" s="4"/>
@@ -9353,7 +9350,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="39"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -9365,67 +9362,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>198</v>
       </c>
       <c r="J41" s="7"/>
@@ -9439,25 +9436,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="39"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -9469,24 +9466,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>205</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>209</v>
       </c>
       <c r="I43" s="7"/>
@@ -9501,24 +9498,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="48" t="s">
         <v>215</v>
       </c>
       <c r="I44" s="7"/>
@@ -9533,26 +9530,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="48" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="7"/>
@@ -9567,24 +9564,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I46" s="7"/>
@@ -9599,26 +9596,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="42" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="48" t="s">
         <v>231</v>
       </c>
       <c r="I47" s="4"/>
@@ -9633,16 +9630,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -9657,10 +9654,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>235</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -9671,50 +9668,50 @@
         <v>237</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="68" t="s">
         <v>237</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>239</v>
       </c>
       <c r="I50" s="7"/>
@@ -9729,10 +9726,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="53" t="s">
         <v>241</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -9743,15 +9740,15 @@
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="57"/>
+      <c r="K51" s="56"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -9761,10 +9758,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -9777,13 +9774,13 @@
         <v>244</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -9797,29 +9794,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="73" t="s">
+      <c r="H53" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -9833,10 +9830,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="71" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -9849,10 +9846,10 @@
         <v>250</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="74" t="s">
+      <c r="G54" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="74" t="s">
         <v>251</v>
       </c>
       <c r="I54" s="7"/>
@@ -9867,10 +9864,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -9883,10 +9880,10 @@
         <v>253</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="75" t="s">
+      <c r="H55" s="74" t="s">
         <v>254</v>
       </c>
       <c r="I55" s="7"/>
@@ -9901,28 +9898,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="73" t="s">
+      <c r="H56" s="72" t="s">
         <v>258</v>
       </c>
       <c r="I56" s="7"/>
@@ -9937,10 +9934,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -9953,10 +9950,10 @@
         <v>260</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="73" t="s">
+      <c r="H57" s="72" t="s">
         <v>261</v>
       </c>
       <c r="I57" s="7"/>
@@ -9971,10 +9968,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -9987,10 +9984,10 @@
         <v>263</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="73" t="s">
+      <c r="H58" s="72" t="s">
         <v>264</v>
       </c>
       <c r="I58" s="7"/>
@@ -10005,10 +10002,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -10021,13 +10018,13 @@
         <v>266</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="73" t="s">
+      <c r="H59" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -10041,10 +10038,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -10057,10 +10054,10 @@
         <v>269</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="72" t="s">
         <v>270</v>
       </c>
       <c r="I60" s="7"/>
@@ -10075,10 +10072,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -10091,10 +10088,10 @@
         <v>272</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="72" t="s">
         <v>273</v>
       </c>
       <c r="I61" s="7"/>
@@ -10109,10 +10106,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="71" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -10125,10 +10122,10 @@
         <v>275</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="72" t="s">
         <v>276</v>
       </c>
       <c r="I62" s="7"/>
@@ -10143,10 +10140,10 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="4"/>
@@ -10167,31 +10164,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="78" t="s">
+      <c r="H64" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -10201,10 +10198,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="4"/>
@@ -10225,24 +10222,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>284</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="63" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="62" t="s">
         <v>288</v>
       </c>
       <c r="I66" s="7"/>
@@ -10257,24 +10254,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="53" t="s">
         <v>290</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="63" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -10289,27 +10286,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>290</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="81" t="s">
         <v>292</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84" t="s">
+      <c r="F68" s="82"/>
+      <c r="G68" s="83" t="s">
         <v>238</v>
       </c>
-      <c r="H68" s="84" t="s">
+      <c r="H68" s="83" t="s">
         <v>239</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="38" t="s">
         <v>293</v>
       </c>
       <c r="L68" s="28"/>
@@ -10321,24 +10318,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>295</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="63" t="s">
+      <c r="F69" s="78"/>
+      <c r="G69" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -10353,29 +10350,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="63" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -10389,29 +10386,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="F71" s="79"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -10425,26 +10422,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="F72" s="83"/>
-      <c r="G72" s="63" t="s">
+      <c r="F72" s="82"/>
+      <c r="G72" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="62" t="s">
         <v>305</v>
       </c>
       <c r="I72" s="7"/>
@@ -10459,26 +10456,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="82"/>
+      <c r="G73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="84" t="s">
         <v>308</v>
       </c>
       <c r="I73" s="7"/>
@@ -10493,28 +10490,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="85" t="s">
+      <c r="H74" s="84" t="s">
         <v>312</v>
       </c>
       <c r="I74" s="7"/>
@@ -10529,26 +10526,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="62" t="s">
         <v>315</v>
       </c>
       <c r="I75" s="7"/>
@@ -10563,26 +10560,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="63" t="s">
+      <c r="F76" s="78"/>
+      <c r="G76" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="85" t="s">
+      <c r="H76" s="84" t="s">
         <v>318</v>
       </c>
       <c r="I76" s="7"/>
@@ -10597,29 +10594,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="63" t="s">
+      <c r="F77" s="82"/>
+      <c r="G77" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="84" t="s">
         <v>321</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -10633,26 +10630,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="63" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="84" t="s">
         <v>324</v>
       </c>
       <c r="I78" s="7"/>
@@ -10667,26 +10664,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="63" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>327</v>
       </c>
       <c r="I79" s="7"/>
@@ -10701,26 +10698,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="63" t="s">
+      <c r="F80" s="78"/>
+      <c r="G80" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="62" t="s">
         <v>330</v>
       </c>
       <c r="I80" s="7"/>
@@ -10735,18 +10732,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -10759,26 +10756,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="79"/>
-      <c r="G82" s="63" t="s">
+      <c r="F82" s="78"/>
+      <c r="G82" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="62" t="s">
         <v>334</v>
       </c>
       <c r="I82" s="7"/>
@@ -10793,24 +10790,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49" t="s">
+      <c r="D83" s="48"/>
+      <c r="E83" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="49" t="s">
+      <c r="F83" s="58"/>
+      <c r="G83" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="48" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -10825,24 +10822,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="89" t="s">
+      <c r="F84" s="36"/>
+      <c r="G84" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="89" t="s">
+      <c r="H84" s="88" t="s">
         <v>342</v>
       </c>
       <c r="I84" s="7"/>
@@ -10857,10 +10854,10 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>344</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -10869,19 +10866,19 @@
       <c r="D85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="41" t="s">
         <v>347</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="39" t="s">
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38" t="s">
         <v>350</v>
       </c>
       <c r="L85" s="28"/>
@@ -10893,20 +10890,20 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="48"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="35" t="s">
         <v>354</v>
       </c>
       <c r="I86" s="7"/>
@@ -10921,10 +10918,10 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>356</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -10933,37 +10930,37 @@
       <c r="D87" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E87" s="91" t="s">
+      <c r="E87" s="90" t="s">
         <v>359</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39" t="s">
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36" t="s">
+      <c r="F88" s="35"/>
+      <c r="G88" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="35" t="s">
         <v>364</v>
       </c>
       <c r="I88" s="7"/>
@@ -10971,10 +10968,10 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>366</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -10983,46 +10980,46 @@
       <c r="D89" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="41" t="s">
         <v>367</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>370</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="36" t="s">
+      <c r="G90" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="91" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
@@ -11036,27 +11033,27 @@
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="40" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -11065,56 +11062,56 @@
       <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39" t="s">
+      <c r="F93" s="38"/>
+      <c r="G93" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="39" t="s">
+      <c r="H93" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C94" s="46" t="s">
+      <c r="C94" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="D94" s="46" t="s">
+      <c r="D94" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="46" t="s">
+      <c r="F94" s="45"/>
+      <c r="G94" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="46" t="s">
+      <c r="H94" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="61" t="s">
+      <c r="I94" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J94" s="57"/>
+      <c r="J94" s="56"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="47" t="s">
         <v>389</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -11123,14 +11120,14 @@
       <c r="D95" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36" t="s">
+      <c r="F95" s="35"/>
+      <c r="G95" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="63" t="s">
+      <c r="H95" s="62" t="s">
         <v>394</v>
       </c>
       <c r="I95" s="7"/>
@@ -11138,10 +11135,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="52" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="53" t="s">
         <v>396</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -11150,23 +11147,23 @@
       <c r="D96" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="39" t="s">
+      <c r="K96" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="47" t="s">
         <v>402</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -11175,14 +11172,14 @@
       <c r="D97" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E97" s="36" t="s">
+      <c r="E97" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36" t="s">
+      <c r="F97" s="35"/>
+      <c r="G97" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="H97" s="36" t="s">
+      <c r="H97" s="35" t="s">
         <v>407</v>
       </c>
       <c r="I97" s="7"/>
@@ -11190,41 +11187,41 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="42" t="s">
+      <c r="E98" s="41" t="s">
         <v>409</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="92" t="s">
         <v>408</v>
       </c>
-      <c r="B99" s="94" t="s">
+      <c r="B99" s="93" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="41" t="s">
         <v>409</v>
       </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="63" t="s">
+      <c r="G99" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="H99" s="63" t="s">
+      <c r="H99" s="62" t="s">
         <v>411</v>
       </c>
       <c r="I99" s="7"/>
@@ -11232,10 +11229,10 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="B100" s="48" t="s">
+      <c r="B100" s="47" t="s">
         <v>413</v>
       </c>
       <c r="C100" s="4"/>
@@ -11249,10 +11246,10 @@
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="53" t="s">
+      <c r="A101" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="53" t="s">
         <v>389</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -11261,14 +11258,14 @@
       <c r="D101" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36" t="s">
+      <c r="F101" s="35"/>
+      <c r="G101" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H101" s="35" t="s">
         <v>417</v>
       </c>
       <c r="I101" s="7"/>
@@ -11276,10 +11273,10 @@
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="53" t="s">
         <v>396</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -11288,23 +11285,23 @@
       <c r="D102" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="39" t="s">
+      <c r="K102" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="47" t="s">
         <v>421</v>
       </c>
       <c r="C103" s="4"/>
@@ -11318,10 +11315,10 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -11330,16 +11327,16 @@
       <c r="D104" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="H104" s="95" t="s">
+      <c r="H104" s="94" t="s">
         <v>428</v>
       </c>
       <c r="I104" s="7"/>
@@ -11347,97 +11344,97 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="37" t="s">
+      <c r="F105" s="35"/>
+      <c r="G105" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="H105" s="96" t="s">
+      <c r="H105" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="I105" s="39" t="s">
+      <c r="I105" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="D106" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="39" t="s">
+      <c r="E106" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39" t="s">
+      <c r="F106" s="38"/>
+      <c r="G106" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="H106" s="97" t="s">
+      <c r="H106" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="I106" s="39" t="s">
+      <c r="I106" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="B107" s="48" t="s">
+      <c r="B107" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="D107" s="49" t="s">
+      <c r="D107" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36" t="s">
+      <c r="F107" s="35"/>
+      <c r="G107" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="H107" s="98" t="s">
+      <c r="H107" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="I107" s="39" t="s">
+      <c r="I107" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="34" t="s">
+      <c r="A108" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="34" t="s">
         <v>445</v>
       </c>
       <c r="C108" s="4"/>
@@ -11451,55 +11448,55 @@
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>448</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="E109" s="99" t="s">
+      <c r="E109" s="98" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="99"/>
-      <c r="G109" s="100" t="s">
+      <c r="F109" s="98"/>
+      <c r="G109" s="99" t="s">
         <v>379</v>
       </c>
-      <c r="H109" s="101" t="s">
+      <c r="H109" s="100" t="s">
         <v>451</v>
       </c>
-      <c r="I109" s="39" t="s">
+      <c r="I109" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="40" t="s">
+      <c r="A110" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="C110" s="102" t="s">
+      <c r="C110" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="D110" s="102" t="s">
+      <c r="D110" s="101" t="s">
         <v>455</v>
       </c>
-      <c r="E110" s="103" t="s">
+      <c r="E110" s="102" t="s">
         <v>456</v>
       </c>
-      <c r="F110" s="103"/>
-      <c r="G110" s="36" t="s">
+      <c r="F110" s="102"/>
+      <c r="G110" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="H110" s="104" t="s">
+      <c r="H110" s="103" t="s">
         <v>458</v>
       </c>
       <c r="I110" s="7"/>
@@ -11568,22 +11565,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="105" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11594,16 +11591,16 @@
       <c r="B2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>398</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>459</v>
       </c>
     </row>
@@ -11611,17 +11608,17 @@
       <c r="A3" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11629,17 +11626,17 @@
       <c r="A4" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>466</v>
       </c>
     </row>
@@ -11650,82 +11647,82 @@
       <c r="B5" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>398</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>474</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -11734,10 +11731,10 @@
       <c r="D7" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>478</v>
       </c>
     </row>
@@ -11748,32 +11745,32 @@
       <c r="B8" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>481</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>484</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83" t="s">
         <v>486</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>483</v>
       </c>
     </row>
@@ -11781,17 +11778,17 @@
       <c r="A10" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="107" t="s">
         <v>489</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11799,7 +11796,7 @@
       <c r="A11" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>493</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -11808,30 +11805,30 @@
       <c r="D11" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>501</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="108" t="s">
         <v>503</v>
       </c>
     </row>
@@ -11839,31 +11836,31 @@
       <c r="A13" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>505</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="109" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="59" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="109" t="s">
         <v>511</v>
       </c>
     </row>
@@ -15845,93 +15842,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="113" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="115" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="112" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="112" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="113"/>
+      <c r="B8" s="112"/>
     </row>
     <row r="9">
-      <c r="B9" s="113"/>
+      <c r="B9" s="112"/>
     </row>
     <row r="10">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="115" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="116" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="117" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="119" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="120" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="121" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="122" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="116"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="115" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="123" t="s">
         <v>529</v>
       </c>
     </row>
@@ -15939,13 +15936,13 @@
       <c r="A19" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B19" s="125"/>
+      <c r="B19" s="124"/>
     </row>
     <row r="21">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="115" t="s">
         <v>531</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>532</v>
       </c>
     </row>
@@ -15971,47 +15968,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="126" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="112" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="126" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="112" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="112" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="126" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="113" t="s">
+      <c r="A9" s="112" t="s">
         <v>541</v>
       </c>
     </row>
@@ -16040,12 +16037,12 @@
       <c r="A1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="127" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>543</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -16098,7 +16095,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="117"/>
+      <c r="A1" s="116"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16122,13 +16119,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>551</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="129" t="s">
         <v>552</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="130" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16148,10 +16145,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>558</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -16164,10 +16161,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>558</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -16180,16 +16177,16 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>562</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>563</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -16248,220 +16245,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="131" t="s">
         <v>577</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="132" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>579</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
     </row>
     <row r="10">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="131" t="s">
         <v>580</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="132" t="s">
         <v>578</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="132" t="s">
         <v>581</v>
       </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
     </row>
     <row r="11">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>582</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="132" t="s">
         <v>584</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
     </row>
     <row r="12">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="131" t="s">
         <v>585</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="132" t="s">
         <v>583</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="132" t="s">
         <v>586</v>
       </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="134"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="133"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="133"/>
+      <c r="V12" s="133"/>
+      <c r="W12" s="133"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
     </row>
     <row r="13">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="131" t="s">
         <v>587</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="131" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="132" t="s">
         <v>588</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="134"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="133"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="133"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="133"/>
+      <c r="Z13" s="133"/>
     </row>
     <row r="14">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="131" t="s">
         <v>589</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="131" t="s">
         <v>562</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="132" t="s">
         <v>559</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="132" t="s">
         <v>590</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="134"/>
-      <c r="R14" s="134"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="134"/>
-      <c r="Z14" s="134"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16489,51 +16486,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="115" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="115" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="112" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="112" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="112" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="112" t="s">
         <v>595</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="112" t="s">
         <v>596</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="135" t="s">
         <v>594</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="112" t="s">
         <v>597</v>
       </c>
     </row>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="596">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.2-alpha.1</t>
+    <t>2.1.2-alpha.6</t>
   </si>
   <si>
     <r>
@@ -250,12 +250,6 @@
     <t>?this epo:announcesRole ?value</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:Procedure</t>
-  </si>
-  <si>
-    <t>?this epo:contextualisedBy ?value</t>
-  </si>
-  <si>
     <t>I.1.1</t>
   </si>
   <si>
@@ -3214,6 +3208,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -3221,6 +3216,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
     </r>
@@ -3228,6 +3224,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>?value .</t>
     </r>
@@ -3299,7 +3296,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?this</t>
     </r>
@@ -3307,7 +3303,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:hasDescription </t>
     </r>
@@ -3315,7 +3310,6 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>?value .</t>
     </r>
@@ -4025,12 +4019,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -4128,12 +4122,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCECFF"/>
       </patternFill>
@@ -4142,6 +4130,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAC1ED"/>
         <bgColor rgb="FFDAC1ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -4249,7 +4243,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4322,8 +4316,8 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4358,16 +4352,34 @@
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -4376,34 +4388,13 @@
     <xf borderId="7" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4413,40 +4404,34 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -4461,6 +4446,9 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -4470,28 +4458,25 @@
     <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4500,22 +4485,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -4525,15 +4513,15 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -4548,16 +4536,16 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4600,10 +4588,10 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4612,7 +4600,7 @@
     <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8150,11 +8138,11 @@
       <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -8182,9 +8170,9 @@
       <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="38" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -8205,11 +8193,11 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -8229,11 +8217,11 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -8244,10 +8232,10 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
@@ -8255,15 +8243,15 @@
       <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -8274,26 +8262,32 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35" t="s">
+      <c r="A8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="B8" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="C8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -8304,32 +8298,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="44" t="s">
+      <c r="A9" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="C9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -8340,32 +8334,30 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="B10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -8376,30 +8368,30 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>81</v>
+      <c r="A11" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35" t="s">
-        <v>85</v>
-      </c>
       <c r="H11" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -8410,30 +8402,32 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="35" t="s">
+      <c r="A12" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="35" t="s">
+      <c r="B12" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -8444,32 +8438,30 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="A13" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="B13" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -8480,30 +8472,30 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35" t="s">
+      <c r="A14" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="B14" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -8514,30 +8506,32 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="E15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -8548,32 +8542,30 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>116</v>
+      <c r="A16" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="35"/>
+      <c r="H16" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -8584,30 +8576,30 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>122</v>
+      <c r="A17" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -8618,30 +8610,30 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>128</v>
+      <c r="A18" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -8652,30 +8644,20 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="35" t="s">
+      <c r="A19" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="48" t="s">
+      <c r="B19" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -8686,20 +8668,30 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -8711,29 +8703,29 @@
     </row>
     <row r="21">
       <c r="A21" s="50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -8744,30 +8736,20 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="A22" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -8778,103 +8760,115 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>56</v>
+      <c r="A23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="E23" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
     </row>
     <row r="24">
-      <c r="A24" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="41" t="s">
+      <c r="A24" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="I24" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
     </row>
     <row r="25">
-      <c r="A25" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="44" t="s">
+      <c r="A25" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="44" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="56"/>
+      <c r="I25" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8884,33 +8878,31 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="45" t="s">
+      <c r="A26" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="45" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="56"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -8920,30 +8912,30 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>81</v>
+      <c r="A27" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -8954,30 +8946,32 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="35" t="s">
+      <c r="A28" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35" t="s">
+      <c r="F28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="G28" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -8988,75 +8982,73 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="35" t="s">
+      <c r="A29" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="48" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
     </row>
     <row r="30">
-      <c r="A30" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="35" t="s">
+      <c r="A30" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="35" t="s">
+      <c r="F30" s="42"/>
+      <c r="G30" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -9066,31 +9058,33 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="44" t="s">
+      <c r="A31" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H31" s="44" t="s">
+      <c r="E31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="56"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -9100,32 +9094,30 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>116</v>
+      <c r="A32" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="35"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -9136,30 +9128,30 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>122</v>
+      <c r="A33" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -9170,30 +9162,30 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>128</v>
+      <c r="A34" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="35"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H34" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -9204,63 +9196,63 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="35" t="s">
+      <c r="A35" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="58" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -9271,30 +9263,30 @@
     </row>
     <row r="37">
       <c r="A37" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="61" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="56"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -9304,29 +9296,19 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" s="48" t="s">
+      <c r="B38" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="38"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -9338,19 +9320,25 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -9362,69 +9350,69 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>192</v>
+      </c>
       <c r="E40" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="44"/>
+        <v>193</v>
+      </c>
+      <c r="F40" s="36"/>
       <c r="G40" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
     </row>
     <row r="41">
-      <c r="A41" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" s="48" t="s">
+      <c r="A41" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="I41" s="38" t="s">
+      <c r="B41" s="41" t="s">
         <v>198</v>
       </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="28"/>
@@ -9436,25 +9424,27 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="B42" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I42" s="38"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -9466,25 +9456,25 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43" s="62" t="s">
+      <c r="A43" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="62" t="s">
+      <c r="B43" s="45" t="s">
         <v>209</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -9498,25 +9488,27 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48" t="s">
+      <c r="A44" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="48" t="s">
+      <c r="B44" s="51" t="s">
         <v>215</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>220</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -9530,27 +9522,25 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="48" t="s">
+      <c r="A45" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="48" t="s">
+      <c r="B45" s="45" t="s">
         <v>222</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -9564,25 +9554,27 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>224</v>
+      <c r="A46" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>226</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D46" s="58"/>
-      <c r="E46" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="58"/>
+      <c r="E46" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>228</v>
+      </c>
       <c r="G46" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="64" t="s">
-        <v>226</v>
+        <v>219</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>229</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -9596,28 +9588,18 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="48" t="s">
+      <c r="A47" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="48" t="s">
+      <c r="B47" s="45" t="s">
         <v>231</v>
       </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="7"/>
@@ -9630,18 +9612,26 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>61</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="7"/>
@@ -9654,69 +9644,69 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="D49" s="64"/>
+      <c r="E49" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="H49" s="59" t="s">
         <v>237</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="55"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="54"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68" t="s">
-        <v>237</v>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" s="62" t="s">
-        <v>239</v>
+      <c r="G50" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="55"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -9726,29 +9716,33 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="67" t="s">
         <v>241</v>
       </c>
+      <c r="B51" s="68" t="s">
+        <v>63</v>
+      </c>
       <c r="C51" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="69" t="s">
-        <v>60</v>
+      <c r="G51" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="I51" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="56"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -9758,30 +9752,30 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="A52" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="H52" s="72" t="s">
+      <c r="B52" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="I52" s="38" t="s">
-        <v>71</v>
+      <c r="F52" s="46"/>
+      <c r="G52" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -9794,31 +9788,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="48" t="s">
+      <c r="A53" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" s="72" t="s">
+      <c r="B53" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="I53" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="28"/>
@@ -9830,27 +9822,27 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>81</v>
+      <c r="A54" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="74" t="s">
-        <v>251</v>
+      <c r="H54" s="72" t="s">
+        <v>252</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -9864,27 +9856,29 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="A55" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="74" t="s">
+      <c r="B55" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>254</v>
+      </c>
+      <c r="F55" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="72" t="s">
+        <v>256</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -9898,29 +9892,27 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="A56" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="72" t="s">
+      <c r="B56" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>258</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>259</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -9934,27 +9926,27 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>102</v>
+      <c r="A57" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57" s="72" t="s">
-        <v>261</v>
+      <c r="G57" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>262</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -9968,29 +9960,31 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>109</v>
+      <c r="A58" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="H58" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="I58" s="7"/>
+      <c r="G58" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="28"/>
@@ -10002,31 +9996,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>116</v>
+      <c r="A59" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="H59" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="28"/>
@@ -10038,27 +10030,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>122</v>
+      <c r="A60" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H60" s="72" t="s">
-        <v>270</v>
+      <c r="G60" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>271</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10072,27 +10064,27 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>128</v>
+      <c r="A61" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="72" t="s">
-        <v>273</v>
+      <c r="G61" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="69" t="s">
+        <v>274</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -10106,28 +10098,18 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="A62" s="67" t="s">
         <v>275</v>
       </c>
+      <c r="B62" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>276</v>
-      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -10140,21 +10122,31 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
@@ -10164,31 +10156,21 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" s="44" t="s">
+      <c r="A64" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="H64" s="77" t="s">
+      <c r="B64" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -10198,18 +10180,26 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="E65" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="76"/>
+      <c r="G65" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>286</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -10222,25 +10212,25 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>284</v>
+      <c r="A66" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>288</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="H66" s="62" t="s">
-        <v>288</v>
+      <c r="E66" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>61</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -10254,29 +10244,29 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>61</v>
+      <c r="F67" s="77"/>
+      <c r="G67" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>237</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="70" t="s">
+        <v>291</v>
+      </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
@@ -10286,29 +10276,29 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B68" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" s="82"/>
-      <c r="G68" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="H68" s="83" t="s">
-        <v>239</v>
+      <c r="E68" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="76"/>
+      <c r="G68" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="38" t="s">
-        <v>293</v>
-      </c>
+      <c r="K68" s="7"/>
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
@@ -10318,27 +10308,31 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="62" t="s">
+      <c r="B69" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" s="7"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="I69" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="28"/>
@@ -10350,30 +10344,30 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>65</v>
+      <c r="A70" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="H70" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="I70" s="38" t="s">
-        <v>71</v>
+      <c r="F70" s="77"/>
+      <c r="G70" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="I70" s="70" t="s">
+        <v>77</v>
       </c>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -10386,31 +10380,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>73</v>
+      <c r="A71" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>79</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="F71" s="77"/>
+      <c r="G71" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="28"/>
@@ -10422,27 +10414,27 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B72" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="38" t="s">
+      <c r="A72" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="F72" s="76"/>
+      <c r="G72" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="62" t="s">
-        <v>305</v>
+      <c r="H72" s="59" t="s">
+        <v>306</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -10456,27 +10448,29 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>88</v>
+      <c r="A73" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="59" t="s">
         <v>308</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="81" t="s">
+        <v>310</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -10490,29 +10484,27 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>94</v>
+      <c r="A74" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="F74" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="G74" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="59" t="s">
         <v>312</v>
+      </c>
+      <c r="F74" s="77"/>
+      <c r="G74" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>313</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -10526,27 +10518,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>102</v>
+      <c r="A75" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>107</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="H75" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="59" t="s">
         <v>315</v>
+      </c>
+      <c r="F75" s="77"/>
+      <c r="G75" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>316</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -10560,29 +10552,31 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>109</v>
+      <c r="A76" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="H76" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="I76" s="7"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="I76" s="70" t="s">
+        <v>69</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="28"/>
@@ -10594,31 +10588,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="B77" s="71" t="s">
-        <v>116</v>
+      <c r="A77" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" s="68" t="s">
+        <v>120</v>
       </c>
       <c r="C77" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" s="76"/>
+      <c r="G77" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H77" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="H77" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="28"/>
@@ -10630,27 +10622,27 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>122</v>
+      <c r="A78" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H78" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="59" t="s">
         <v>324</v>
+      </c>
+      <c r="F78" s="77"/>
+      <c r="G78" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="81" t="s">
+        <v>325</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -10664,27 +10656,27 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="B79" s="71" t="s">
-        <v>128</v>
+      <c r="A79" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>133</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="78"/>
-      <c r="G79" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H79" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="59" t="s">
         <v>327</v>
+      </c>
+      <c r="F79" s="77"/>
+      <c r="G79" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>328</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -10698,28 +10690,18 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="62" t="s">
+      <c r="A80" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="78"/>
-      <c r="G80" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="H80" s="62" t="s">
-        <v>330</v>
-      </c>
+      <c r="B80" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -10732,18 +10714,28 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>332</v>
+      </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -10756,27 +10748,25 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="62" t="s">
+      <c r="A82" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="F82" s="78"/>
-      <c r="G82" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="H82" s="62" t="s">
+      <c r="B82" s="45" t="s">
         <v>334</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>338</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -10790,24 +10780,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="D83" s="85"/>
+      <c r="E83" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="C83" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="F83" s="58"/>
-      <c r="G83" s="48" t="s">
+      <c r="F83" s="87"/>
+      <c r="G83" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="85" t="s">
         <v>340</v>
       </c>
       <c r="I83" s="7"/>
@@ -10822,29 +10812,33 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="86" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="87" t="s">
-        <v>336</v>
-      </c>
-      <c r="C84" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="89" t="s">
-        <v>338</v>
-      </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="88" t="s">
+      <c r="A84" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="H84" s="88" t="s">
+      <c r="B84" s="39" t="s">
         <v>342</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
       <c r="N84" s="28"/>
@@ -10854,33 +10848,25 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E85" s="41" t="s">
-        <v>347</v>
+      <c r="A85" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
       <c r="N85" s="28"/>
@@ -10890,25 +10876,33 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>353</v>
       </c>
+      <c r="B86" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="H86" s="35" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
       <c r="N86" s="28"/>
@@ -10918,617 +10912,588 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="39" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E87" s="90" t="s">
-        <v>359</v>
+      <c r="A87" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B87" s="45"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H87" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38" t="s">
-        <v>350</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H87" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="B88" s="47"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="35" t="s">
+      <c r="A88" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35" t="s">
-        <v>353</v>
+      <c r="B88" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E89" s="41" t="s">
+      <c r="A89" s="44" t="s">
         <v>367</v>
+      </c>
+      <c r="B89" s="45"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
+        <v>369</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B90" s="47"/>
+      <c r="A90" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" s="88" t="s">
+        <v>371</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="35" t="s">
-        <v>370</v>
-      </c>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="H90" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="39" t="s">
         <v>373</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="35"/>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="39" t="s">
+      <c r="A92" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="D92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H92" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38" t="s">
+      <c r="A93" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="B93" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
+      <c r="C93" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93" s="89" t="s">
+        <v>385</v>
+      </c>
+      <c r="I93" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="55"/>
+      <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="C94" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>384</v>
-      </c>
-      <c r="E94" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45" t="s">
+      <c r="A94" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="H94" s="45" t="s">
+      <c r="B94" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="I94" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="J94" s="56"/>
+      <c r="C94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="46" t="s">
-        <v>388</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>389</v>
+      <c r="A95" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="H95" s="62" t="s">
-        <v>394</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
+      <c r="K95" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="B96" s="53" t="s">
-        <v>396</v>
+      <c r="A96" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>400</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
+        <v>402</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H96" s="35" t="s">
+        <v>405</v>
+      </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="38" t="s">
-        <v>400</v>
-      </c>
+      <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="46" t="s">
-        <v>401</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35" t="s">
+      <c r="A97" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="B97" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="52" t="s">
         <v>407</v>
       </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="B98" s="40" t="s">
+      <c r="A98" s="90" t="s">
+        <v>406</v>
+      </c>
+      <c r="B98" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="H98" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="92" t="s">
-        <v>408</v>
-      </c>
-      <c r="B99" s="93" t="s">
-        <v>8</v>
+      <c r="A99" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>411</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="41" t="s">
-        <v>409</v>
-      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="H99" s="62" t="s">
-        <v>411</v>
-      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="51" t="s">
+        <v>387</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>415</v>
+      </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="B101" s="53" t="s">
-        <v>389</v>
+      <c r="A101" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="H101" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>417</v>
       </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="35"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="K101" s="7" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="B102" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E102" s="35" t="s">
+      <c r="B102" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="38" t="s">
-        <v>400</v>
-      </c>
+      <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G103" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H103" s="60" t="s">
+        <v>426</v>
+      </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="B104" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>426</v>
-      </c>
+      <c r="A104" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="H104" s="94" t="s">
-        <v>428</v>
-      </c>
-      <c r="I104" s="7"/>
+        <v>432</v>
+      </c>
+      <c r="H104" s="92" t="s">
+        <v>433</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="B105" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="C105" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="D105" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="F105" s="35"/>
-      <c r="G105" s="36" t="s">
+      <c r="A105" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="H105" s="95" t="s">
+      <c r="B105" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="I105" s="38" t="s">
-        <v>71</v>
+      <c r="C105" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H105" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="C106" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="B106" s="47" t="s">
+      <c r="D106" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="C106" s="48" t="s">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D106" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H106" s="96" t="s">
+      <c r="H106" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="I106" s="38" t="s">
-        <v>71</v>
+      <c r="I106" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="46" t="s">
-        <v>436</v>
-      </c>
-      <c r="B107" s="47" t="s">
+      <c r="A107" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C107" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="D107" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H107" s="97" t="s">
+      <c r="B107" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="I107" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="7"/>
+      <c r="C108" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="E108" s="96" t="s">
+        <v>448</v>
+      </c>
+      <c r="F108" s="96"/>
+      <c r="G108" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="H108" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="39" t="s">
-        <v>446</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="C109" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="E109" s="98" t="s">
+      <c r="A109" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="98"/>
-      <c r="G109" s="99" t="s">
-        <v>379</v>
-      </c>
-      <c r="H109" s="100" t="s">
+      <c r="B109" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="I109" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="C109" s="99" t="s">
+        <v>452</v>
+      </c>
+      <c r="D109" s="100" t="s">
+        <v>453</v>
+      </c>
+      <c r="E109" s="101" t="s">
+        <v>454</v>
+      </c>
+      <c r="F109" s="101"/>
+      <c r="G109" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="H109" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="C110" s="101" t="s">
-        <v>454</v>
-      </c>
-      <c r="D110" s="101" t="s">
-        <v>455</v>
-      </c>
-      <c r="E110" s="102" t="s">
-        <v>456</v>
-      </c>
-      <c r="F110" s="102"/>
-      <c r="G110" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="H110" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B110">
+  <conditionalFormatting sqref="A3:B109">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B110">
+  <conditionalFormatting sqref="A3:B109">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B110">
+  <conditionalFormatting sqref="A3:B109">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B110">
+  <conditionalFormatting sqref="A3:B109">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B110">
+  <conditionalFormatting sqref="A3:B109">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -11565,303 +11530,303 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="E2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>462</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="35" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>460</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>462</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>398</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
+        <v>465</v>
+      </c>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="D6" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="E6" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>472</v>
-      </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="35" t="s">
         <v>476</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" s="70" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="70" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="F8" s="70" t="s">
         <v>481</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="38" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="75" t="s">
         <v>482</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="B9" s="75" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="83" t="s">
+      <c r="C9" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="B9" s="83" t="s">
-        <v>485</v>
-      </c>
-      <c r="C9" s="83" t="s">
+      <c r="F9" s="75" t="s">
         <v>481</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="F9" s="83" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="105" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="F10" s="70" t="s">
         <v>489</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="D11" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="70" t="s">
         <v>494</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="E11" s="38" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="76" t="s">
         <v>496</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="B12" s="75" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="82" t="s">
+      <c r="C12" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="D12" s="76" t="s">
         <v>499</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="E12" s="75" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="F12" s="106" t="s">
         <v>501</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>502</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>503</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="96" t="s">
         <v>506</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="58" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="98" t="s">
+      <c r="E14" s="70" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="58" t="s">
+      <c r="F14" s="107" t="s">
         <v>509</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15">
@@ -15842,108 +15807,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="109" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="111" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B3" s="110" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="113" t="s">
+    <row r="4">
+      <c r="A4" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="112" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="113" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="114" t="s">
+      <c r="B6" s="110" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="115" t="s">
+    <row r="7">
+      <c r="B7" s="110" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="112" t="s">
+    </row>
+    <row r="8">
+      <c r="B8" s="110"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="110"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="113" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="112" t="s">
+    <row r="11">
+      <c r="A11" s="113" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="112"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="112"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="115" t="s">
+      <c r="B11" s="114" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="115" t="s">
+    <row r="12">
+      <c r="B12" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="116" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="116"/>
+      <c r="B13" s="117" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="117" t="s">
+    <row r="14">
+      <c r="B14" s="118" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119" t="s">
+    <row r="15">
+      <c r="B15" s="119" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="120" t="s">
+    <row r="16">
+      <c r="B16" s="120" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="121" t="s">
+    <row r="17">
+      <c r="A17" s="113"/>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="113" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="122" t="s">
+      <c r="B18" s="121" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="115"/>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="115" t="s">
-        <v>528</v>
-      </c>
-      <c r="B18" s="123" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="122"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="113" t="s">
+        <v>529</v>
+      </c>
+      <c r="B21" s="123" t="s">
         <v>530</v>
-      </c>
-      <c r="B19" s="124"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="115" t="s">
-        <v>531</v>
-      </c>
-      <c r="B21" s="125" t="s">
-        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -15968,48 +15933,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="113" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="124" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="110" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="126" t="s">
+    <row r="4">
+      <c r="A4" s="124" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="112" t="s">
+    <row r="5">
+      <c r="A5" s="110" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="126" t="s">
+    <row r="6">
+      <c r="A6" s="110" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="112" t="s">
+    <row r="7">
+      <c r="A7" s="110" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="112" t="s">
+    <row r="8">
+      <c r="A8" s="124" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="112" t="s">
+    <row r="9">
+      <c r="A9" s="110" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="126" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="112" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -16035,48 +16000,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B1" s="127" t="s">
+        <v>531</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="126" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="128" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -16095,7 +16060,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="116"/>
+      <c r="A1" s="114"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16119,40 +16084,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
-        <v>551</v>
-      </c>
-      <c r="C1" s="129" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" s="130" t="s">
+      <c r="A1" s="127" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="127" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="128" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -16162,13 +16127,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16178,287 +16143,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="E5" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="E8" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="129" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="B9" s="130" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="131" t="s">
+      <c r="C9" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="130" t="s">
         <v>577</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="129" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D9" s="132" t="s">
+      <c r="B10" s="130" t="s">
+        <v>576</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="130" t="s">
         <v>579</v>
       </c>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="131" t="s">
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="129" t="s">
         <v>580</v>
       </c>
-      <c r="B10" s="132" t="s">
-        <v>578</v>
-      </c>
-      <c r="C10" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>581</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="131" t="s">
+      <c r="C11" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="130" t="s">
         <v>582</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="129" t="s">
         <v>583</v>
       </c>
-      <c r="C11" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D11" s="132" t="s">
+      <c r="B12" s="130" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D12" s="130" t="s">
         <v>584</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="131" t="s">
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="129" t="s">
         <v>585</v>
       </c>
-      <c r="B12" s="132" t="s">
-        <v>583</v>
-      </c>
-      <c r="C12" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D12" s="132" t="s">
+      <c r="B13" s="129" t="s">
+        <v>560</v>
+      </c>
+      <c r="C13" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="130" t="s">
         <v>586</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="133"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
-      <c r="V12" s="133"/>
-      <c r="W12" s="133"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="133"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="131" t="s">
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="129" t="s">
         <v>587</v>
       </c>
-      <c r="B13" s="131" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D13" s="132" t="s">
+      <c r="B14" s="129" t="s">
+        <v>560</v>
+      </c>
+      <c r="C14" s="130" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="130" t="s">
         <v>588</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="133"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="131" t="s">
-        <v>589</v>
-      </c>
-      <c r="B14" s="131" t="s">
-        <v>562</v>
-      </c>
-      <c r="C14" s="132" t="s">
-        <v>559</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>590</v>
-      </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="131"/>
+      <c r="Q14" s="131"/>
+      <c r="R14" s="131"/>
+      <c r="S14" s="131"/>
+      <c r="T14" s="131"/>
+      <c r="U14" s="131"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="131"/>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16486,52 +16451,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="132" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="113" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="115" t="s">
+      <c r="B2" s="113" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>553</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>554</v>
       </c>
-      <c r="C2" s="115" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="115" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="110" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="112" t="s">
+      <c r="B4" s="110" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="112" t="s">
+    <row r="5">
+      <c r="A5" s="110" t="s">
         <v>593</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B5" s="110" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="112" t="s">
+      <c r="C5" s="133" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="110" t="s">
         <v>595</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>596</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>594</v>
-      </c>
-      <c r="D5" s="112" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="597">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.2-alpha.6</t>
+    <t>2.2.0-alpha.1</t>
   </si>
   <si>
     <r>
@@ -247,7 +247,27 @@
     <t>epo:Notice / epo:AgentInRole (from CL1)</t>
   </si>
   <si>
-    <t>?this epo:announcesRole ?value</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:announcesRole</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> ?value</t>
+    </r>
   </si>
   <si>
     <t>I.1.1</t>
@@ -310,6 +330,237 @@
     <t>gen_language_tags_exist.ask.rq</t>
   </si>
   <si>
+    <t>I.1.10</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>BT-506</t>
+  </si>
+  <si>
+    <t>Organisation Contact Email Address</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/E_MAIL</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / xsd:anyURI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:email ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>I.1.11</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>BT-739</t>
+  </si>
+  <si>
+    <t>Organisation Contact Fax</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/FAX</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole  / epo:hasFax ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>I.1.12</t>
+  </si>
+  <si>
+    <t>Internet Addresses</t>
+  </si>
+  <si>
+    <t>I.1.12.1</t>
+  </si>
+  <si>
+    <t>Main address</t>
+  </si>
+  <si>
+    <t>BT-505</t>
+  </si>
+  <si>
+    <t>Organisation Internet Address</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_GENERAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasInternetAddress ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>I.1.12.2</t>
+  </si>
+  <si>
+    <t>Address of the buyer profile</t>
+  </si>
+  <si>
+    <t>BT-508</t>
+  </si>
+  <si>
+    <t>Buyer Profile URL</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
+  </si>
+  <si>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -665,9 +916,6 @@
   </si>
   <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/CONTACT_POINT</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -763,22 +1011,13 @@
     </r>
   </si>
   <si>
-    <t>I.1.10</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>BT-506</t>
-  </si>
-  <si>
-    <t>Organisation Contact Email Address</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/E_MAIL</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / xsd:anyURI</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL</t>
+  </si>
+  <si>
+    <t>?this epo:announcesRole ?value</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -801,6 +1040,48 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/E_MAIL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
       <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:email ?</t>
     </r>
     <r>
@@ -820,19 +1101,7 @@
     </r>
   </si>
   <si>
-    <t>I.1.11</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>BT-739</t>
-  </si>
-  <si>
-    <t>Organisation Contact Fax</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/FAX</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/FAX</t>
   </si>
   <si>
     <r>
@@ -874,25 +1143,7 @@
     </r>
   </si>
   <si>
-    <t>I.1.12</t>
-  </si>
-  <si>
-    <t>Internet Addresses</t>
-  </si>
-  <si>
-    <t>I.1.12.1</t>
-  </si>
-  <si>
-    <t>Main address</t>
-  </si>
-  <si>
-    <t>BT-505</t>
-  </si>
-  <si>
-    <t>Organisation Internet Address</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_GENERAL</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_GENERAL</t>
   </si>
   <si>
     <r>
@@ -934,22 +1185,7 @@
     </r>
   </si>
   <si>
-    <t>I.1.12.2</t>
-  </si>
-  <si>
-    <t>Address of the buyer profile</t>
-  </si>
-  <si>
-    <t>BT-508</t>
-  </si>
-  <si>
-    <t>Buyer Profile URL</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_BUYER</t>
   </si>
   <si>
     <r>
@@ -991,10 +1227,7 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/OFFICIALNAME</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -1017,7 +1250,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
     </r>
     <r>
       <rPr>
@@ -1036,7 +1269,7 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/NATIONALID</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -1059,7 +1292,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasID / epo:hasIdentifierValue ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1078,7 +1311,7 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/ADDRESS</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/TOWN</t>
   </si>
   <si>
     <r>
@@ -1101,7 +1334,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1120,7 +1353,10 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/TOWN</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -1143,7 +1379,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1162,10 +1398,7 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/*:NUTS/@CODE</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -1188,7 +1421,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1207,7 +1440,7 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/POSTAL_CODE</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -1230,7 +1463,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1249,7 +1482,10 @@
     </r>
   </si>
   <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/COUNTRY</t>
+    <t>Organisation Contact Point</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/CONTACT_POINT</t>
   </si>
   <si>
     <r>
@@ -1272,7 +1508,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasContactName ?</t>
     </r>
     <r>
       <rPr>
@@ -1291,10 +1527,7 @@
     </r>
   </si>
   <si>
-    <t>Organisation Contact Point</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/CONTACT_POINT</t>
+    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/PHONE</t>
   </si>
   <si>
     <r>
@@ -1317,217 +1550,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasContactName ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/PHONE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
       <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:telephone ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/E_MAIL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:email ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/FAX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole  / epo:hasFax ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_GENERAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasInternetAddress ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY_ADDITIONAL/URL_BUYER</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1908,6 +1931,144 @@
     </r>
   </si>
   <si>
+    <t>I.3.3.2.10</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/E_MAIL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:email ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>I.3.3.2.11</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/FAX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole  / epo:hasFax ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>I.3.3.2.12</t>
+  </si>
+  <si>
+    <t>I.3.3.2.12.1</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/URL_GENERAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasInternetAddress ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
     <t>I.3.3.2.2</t>
   </si>
   <si>
@@ -2271,10 +2432,25 @@
     </r>
   </si>
   <si>
-    <t>I.3.3.2.10</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/E_MAIL</t>
+    <t>I.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenders or requests to participate must be submitted </t>
+  </si>
+  <si>
+    <t>I.3.4.1</t>
+  </si>
+  <si>
+    <t>Electronically via (URL)</t>
+  </si>
+  <si>
+    <t>BT-17</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/URL_PARTICIPATION</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:SubmissionTerm / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -2297,7 +2473,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole  / cpov:email ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm / epo:hasSubmissionURL ?</t>
     </r>
     <r>
       <rPr>
@@ -2316,159 +2492,6 @@
     </r>
   </si>
   <si>
-    <t>I.3.3.2.11</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/FAX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole  / epo:hasFax ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>I.3.3.2.12</t>
-  </si>
-  <si>
-    <t>I.3.3.2.12.1</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_FURTHER_INFO/URL_GENERAL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasContactPointInRole / epo:hasInternetAddress ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>I.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenders or requests to participate must be submitted </t>
-  </si>
-  <si>
-    <t>I.3.4.1</t>
-  </si>
-  <si>
-    <t>Electronically via (URL)</t>
-  </si>
-  <si>
-    <t>BT-17</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/URL_PARTICIPATION</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:anyURI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm / epo:hasSubmissionURL ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
     <t>I.3.4.2</t>
   </si>
   <si>
@@ -2502,6 +2525,36 @@
     <t>?this epo:playedBy / epo:hasLegalName ?value .</t>
   </si>
   <si>
+    <t>I.3.4.3.10</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/E_MAIL</t>
+  </si>
+  <si>
+    <t>?this epo:hasContactPointInRole  / cpov:email ?value .</t>
+  </si>
+  <si>
+    <t>I.3.4.3.11</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/FAX</t>
+  </si>
+  <si>
+    <t>?this epo:hasContactPointInRole  / epo:hasFax ?value .</t>
+  </si>
+  <si>
+    <t>I.3.4.3.12</t>
+  </si>
+  <si>
+    <t>I.3.4.3.12.1</t>
+  </si>
+  <si>
+    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/URL_GENERAL</t>
+  </si>
+  <si>
+    <t>?this epo:hasContactPointInRole / epo:hasInternetAddress ?value .</t>
+  </si>
+  <si>
     <t>I.3.4.3.2</t>
   </si>
   <si>
@@ -2575,36 +2628,6 @@
   </si>
   <si>
     <t>?this epo:hasContactPointInRole  / cpov:telephone ?value .</t>
-  </si>
-  <si>
-    <t>I.3.4.3.10</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/E_MAIL</t>
-  </si>
-  <si>
-    <t>?this epo:hasContactPointInRole  / cpov:email ?value .</t>
-  </si>
-  <si>
-    <t>I.3.4.3.11</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/FAX</t>
-  </si>
-  <si>
-    <t>?this epo:hasContactPointInRole  / epo:hasFax ?value .</t>
-  </si>
-  <si>
-    <t>I.3.4.3.12</t>
-  </si>
-  <si>
-    <t>I.3.4.3.12.1</t>
-  </si>
-  <si>
-    <t>CONTRACTING_BODY/ADDRESS_PARTICIPATION/URL_GENERAL</t>
-  </si>
-  <si>
-    <t>?this epo:hasContactPointInRole / epo:hasInternetAddress ?value .</t>
   </si>
   <si>
     <t>I.3.5</t>
@@ -4169,7 +4192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -4239,11 +4262,21 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4316,8 +4349,8 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4352,25 +4385,22 @@
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4379,19 +4409,25 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -4401,14 +4437,17 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4417,6 +4456,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4446,19 +4488,13 @@
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4479,10 +4515,10 @@
     <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -4497,14 +4533,8 @@
     <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4513,19 +4543,16 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -4548,6 +4575,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -4557,9 +4587,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -8138,11 +8165,11 @@
       <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="35" t="s">
         <v>48</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -8172,7 +8199,7 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -8187,12 +8214,12 @@
       <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="35"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -8211,12 +8238,12 @@
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="35"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -8232,24 +8259,18 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
-        <v>57</v>
+      <c r="A7" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="35" t="s">
-        <v>59</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
@@ -8262,31 +8283,25 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
@@ -8298,30 +8313,30 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>77</v>
+      <c r="A9" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="7"/>
@@ -8334,27 +8349,27 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
+      <c r="A10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>84</v>
+      <c r="G10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>76</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -8368,27 +8383,27 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
+      <c r="A11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="45" t="s">
         <v>83</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -8402,33 +8417,21 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="7"/>
+      <c r="A12" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -8438,27 +8441,27 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>103</v>
+      <c r="A13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>105</v>
+      <c r="G13" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>91</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -8472,27 +8475,27 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>112</v>
+      <c r="A14" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -8506,30 +8509,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>69</v>
+      <c r="A15" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="7"/>
@@ -8542,27 +8545,27 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>123</v>
+      <c r="A16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>111</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>124</v>
+      <c r="G16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -8576,27 +8579,27 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>129</v>
+      <c r="A17" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>131</v>
+      <c r="G17" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>119</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -8610,27 +8613,29 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>137</v>
+      <c r="A18" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>127</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -8644,18 +8649,28 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="7"/>
@@ -8668,27 +8683,27 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="H20" s="45" t="s">
         <v>141</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>145</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -8702,29 +8717,31 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
@@ -8736,18 +8753,28 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>151</v>
+      </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="G22" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>152</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="7"/>
@@ -8760,15 +8787,15 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="42" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="53" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="4"/>
@@ -8776,99 +8803,97 @@
         <v>60</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42" t="s">
+      <c r="E24" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="I24" s="43" t="s">
+      <c r="H24" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43" t="s">
+      <c r="E25" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="55"/>
+      <c r="H25" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -8878,27 +8903,27 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>158</v>
+      <c r="E26" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>159</v>
+      <c r="G26" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -8912,28 +8937,18 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>160</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>161</v>
-      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="7"/>
@@ -8946,29 +8961,27 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="A28" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="45" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>164</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -8982,73 +8995,75 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>100</v>
+      <c r="A29" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>166</v>
+        <v>97</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="55"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -9058,31 +9073,29 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>114</v>
+      <c r="A31" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>170</v>
+        <v>110</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="G31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="7"/>
       <c r="L31" s="28"/>
@@ -9094,27 +9107,27 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>120</v>
+      <c r="A32" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>172</v>
+        <v>117</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>169</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>173</v>
+      <c r="G32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>170</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -9128,27 +9141,29 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>175</v>
+      <c r="H33" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -9162,27 +9177,27 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="45" t="s">
+      <c r="A34" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>177</v>
+      <c r="H34" s="35" t="s">
+        <v>175</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -9196,63 +9211,75 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="56" t="s">
+        <v>176</v>
+      </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>177</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="54"/>
-      <c r="Z35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="B36" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="43" t="s">
+      <c r="E36" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="55"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -9262,27 +9289,27 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" s="57" t="s">
+      <c r="A37" s="43" t="s">
         <v>147</v>
       </c>
+      <c r="B37" s="58" t="s">
+        <v>148</v>
+      </c>
       <c r="C37" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="58" t="s">
-        <v>181</v>
+      <c r="G37" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -9296,11 +9323,11 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="41" t="s">
         <v>183</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -9320,23 +9347,23 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="43" t="s">
         <v>185</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="36" t="s">
+      <c r="E39" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="45" t="s">
         <v>188</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -9351,66 +9378,66 @@
     </row>
     <row r="40">
       <c r="A40" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C40" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="D40" s="45" t="s">
         <v>193</v>
       </c>
+      <c r="E40" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="F40" s="36"/>
-      <c r="G40" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="46" t="s">
+      <c r="G40" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="45" t="s">
         <v>196</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43" t="s">
+      <c r="B41" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="4" t="s">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="45" t="s">
         <v>200</v>
       </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="35" t="s">
+        <v>201</v>
+      </c>
       <c r="H41" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -9424,25 +9451,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="41" t="s">
         <v>203</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="59" t="s">
+      <c r="E42" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="F42" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="G42" s="61" t="s">
         <v>207</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>208</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -9456,25 +9483,25 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="B43" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H43" s="46" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="45" t="s">
         <v>213</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>214</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -9489,26 +9516,26 @@
     </row>
     <row r="44">
       <c r="A44" s="50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="F44" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="G44" s="45" t="s">
         <v>220</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>221</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -9522,25 +9549,25 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46" t="s">
+      <c r="B45" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="60" t="s">
+      <c r="C45" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="45" t="s">
         <v>224</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="H45" s="62" t="s">
+        <v>225</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -9555,26 +9582,26 @@
     </row>
     <row r="46">
       <c r="A46" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="B46" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="58" t="s">
+      <c r="C46" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="H46" s="58" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="60" t="s">
         <v>229</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>230</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -9588,20 +9615,20 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="B47" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
       <c r="K47" s="7"/>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
@@ -9613,24 +9640,24 @@
     </row>
     <row r="48">
       <c r="A48" s="50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="C48" s="35" t="s">
+        <v>235</v>
+      </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>235</v>
+      <c r="E48" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="59" t="s">
-        <v>61</v>
+      <c r="H48" s="61" t="s">
+        <v>154</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -9644,69 +9671,69 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="63" t="s">
+      <c r="A49" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="B49" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65" t="s">
+      <c r="C49" s="67" t="s">
         <v>235</v>
       </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="68" t="s">
+        <v>236</v>
+      </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="59" t="s">
+      <c r="G49" s="61" t="s">
         <v>237</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>238</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="X49" s="54"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
       <c r="A50" s="50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>235</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>240</v>
+      <c r="E50" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="66" t="s">
+      <c r="G50" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H50" s="66" t="s">
-        <v>61</v>
+      <c r="H50" s="69" t="s">
+        <v>154</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="55"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -9716,29 +9743,29 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="68" t="s">
+      <c r="A51" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B51" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>242</v>
+      <c r="E51" s="35" t="s">
+        <v>243</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="66" t="s">
+      <c r="G51" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="I51" s="70" t="s">
+      <c r="H51" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J51" s="7"/>
@@ -9752,31 +9779,29 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B52" s="68" t="s">
+      <c r="A52" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="66" t="s">
+      <c r="E52" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>77</v>
-      </c>
+      <c r="H52" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="28"/>
@@ -9788,27 +9813,27 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>248</v>
+      <c r="E53" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H53" s="69" t="s">
-        <v>249</v>
+      <c r="G53" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="72" t="s">
+        <v>250</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -9822,28 +9847,18 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="A54" s="70" t="s">
         <v>251</v>
       </c>
+      <c r="B54" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" s="72" t="s">
-        <v>252</v>
-      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -9856,33 +9871,31 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="35" t="s">
+      <c r="F55" s="36"/>
+      <c r="G55" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="F55" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" s="72" t="s">
-        <v>256</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
@@ -9892,29 +9905,31 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" s="7"/>
+      <c r="I56" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="28"/>
@@ -9926,27 +9941,27 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="72" t="s">
         <v>260</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="H57" s="69" t="s">
-        <v>262</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -9960,31 +9975,29 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="I58" s="70" t="s">
-        <v>69</v>
-      </c>
+      <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="28"/>
@@ -9996,27 +10009,29 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="F59" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="G59" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="72" t="s">
         <v>267</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="H59" s="69" t="s">
-        <v>268</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -10030,27 +10045,27 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="72" t="s">
         <v>270</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="69" t="s">
-        <v>271</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -10064,27 +10079,27 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="B61" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="72" t="s">
         <v>273</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="H61" s="69" t="s">
-        <v>274</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -10098,19 +10113,31 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="B62" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="4"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="7"/>
+      <c r="G62" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="28"/>
@@ -10122,31 +10149,31 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="B63" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="42" t="s">
+      <c r="A63" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="F63" s="42"/>
-      <c r="G63" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="74" t="s">
+      <c r="B63" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
@@ -10156,11 +10183,11 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="B64" s="45" t="s">
+      <c r="A64" s="43" t="s">
         <v>280</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -10181,24 +10208,24 @@
     </row>
     <row r="65">
       <c r="A65" s="50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C65" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="C65" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="75" t="s">
+      <c r="E65" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="H65" s="75" t="s">
+      <c r="F65" s="77"/>
+      <c r="G65" s="76" t="s">
         <v>286</v>
+      </c>
+      <c r="H65" s="76" t="s">
+        <v>287</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -10213,24 +10240,24 @@
     </row>
     <row r="66">
       <c r="A66" s="50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C66" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="C66" s="35" t="s">
+        <v>290</v>
+      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="59" t="s">
-        <v>290</v>
-      </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="59" t="s">
+      <c r="E66" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="F66" s="78"/>
+      <c r="G66" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="59" t="s">
-        <v>61</v>
+      <c r="H66" s="61" t="s">
+        <v>154</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -10244,28 +10271,28 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="B67" s="79" t="s">
+      <c r="A67" s="79" t="s">
         <v>288</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>289</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="80" t="s">
-        <v>290</v>
-      </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="H67" s="59" t="s">
+      <c r="E67" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="78"/>
+      <c r="G67" s="61" t="s">
         <v>237</v>
+      </c>
+      <c r="H67" s="61" t="s">
+        <v>238</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="70" t="s">
-        <v>291</v>
+      <c r="K67" s="38" t="s">
+        <v>292</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
@@ -10277,24 +10304,24 @@
     </row>
     <row r="68">
       <c r="A68" s="50" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>290</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="75" t="s">
+      <c r="E68" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="F68" s="77"/>
+      <c r="G68" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="75" t="s">
-        <v>61</v>
+      <c r="H68" s="76" t="s">
+        <v>154</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -10308,10 +10335,10 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="68" t="s">
+      <c r="A69" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="71" t="s">
         <v>63</v>
       </c>
       <c r="C69" s="35" t="s">
@@ -10320,17 +10347,17 @@
       <c r="D69" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="59" t="s">
+      <c r="E69" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" s="78"/>
+      <c r="G69" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="I69" s="70" t="s">
+      <c r="H69" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="I69" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J69" s="7"/>
@@ -10344,10 +10371,10 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="B70" s="68" t="s">
+      <c r="A70" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" s="71" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="35" t="s">
@@ -10356,19 +10383,17 @@
       <c r="D70" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="F70" s="77"/>
-      <c r="G70" s="59" t="s">
+      <c r="E70" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" s="78"/>
+      <c r="G70" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="I70" s="70" t="s">
-        <v>77</v>
-      </c>
+      <c r="H70" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="28"/>
@@ -10380,27 +10405,27 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="B71" s="68" t="s">
+      <c r="A71" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="D71" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="59" t="s">
+      <c r="E71" s="61" t="s">
         <v>303</v>
+      </c>
+      <c r="F71" s="78"/>
+      <c r="G71" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="61" t="s">
+        <v>304</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -10414,28 +10439,18 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="67" t="s">
-        <v>304</v>
-      </c>
-      <c r="B72" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="59" t="s">
+      <c r="A72" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="F72" s="76"/>
-      <c r="G72" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" s="59" t="s">
-        <v>306</v>
-      </c>
+      <c r="B72" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -10448,29 +10463,27 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B73" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="59" t="s">
+      <c r="F73" s="77"/>
+      <c r="G73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="83" t="s">
         <v>308</v>
-      </c>
-      <c r="F73" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="G73" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="81" t="s">
-        <v>310</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -10484,10 +10497,10 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="B74" s="68" t="s">
+      <c r="A74" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" s="71" t="s">
         <v>100</v>
       </c>
       <c r="C74" s="35" t="s">
@@ -10496,17 +10509,19 @@
       <c r="D74" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="F74" s="77"/>
-      <c r="G74" s="59" t="s">
+      <c r="E74" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="F74" s="78"/>
+      <c r="G74" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H74" s="81" t="s">
-        <v>313</v>
-      </c>
-      <c r="I74" s="7"/>
+      <c r="H74" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="28"/>
@@ -10518,27 +10533,27 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="78"/>
+      <c r="G75" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" s="61" t="s">
         <v>314</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="F75" s="77"/>
-      <c r="G75" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="H75" s="59" t="s">
-        <v>316</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -10552,31 +10567,29 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="F76" s="78"/>
+      <c r="G76" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="B76" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="F76" s="77"/>
-      <c r="G76" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H76" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="I76" s="70" t="s">
-        <v>69</v>
-      </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="28"/>
@@ -10588,27 +10601,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="B77" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="59" t="s">
+      <c r="G77" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="83" t="s">
         <v>321</v>
-      </c>
-      <c r="F77" s="76"/>
-      <c r="G77" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H77" s="81" t="s">
-        <v>322</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -10622,27 +10637,27 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="59" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H78" s="83" t="s">
         <v>324</v>
-      </c>
-      <c r="F78" s="77"/>
-      <c r="G78" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H78" s="81" t="s">
-        <v>325</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -10656,27 +10671,27 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="B79" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="B79" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="59" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="H79" s="61" t="s">
         <v>327</v>
-      </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="H79" s="59" t="s">
-        <v>328</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -10690,19 +10705,31 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="7"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="I80" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="28"/>
@@ -10714,27 +10741,27 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="82" t="s">
-        <v>330</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>141</v>
+      <c r="A81" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="B81" s="71" t="s">
+        <v>148</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H81" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" s="61" t="s">
         <v>332</v>
+      </c>
+      <c r="F81" s="77"/>
+      <c r="G81" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>333</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -10748,25 +10775,25 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="46" t="s">
+      <c r="B82" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46" t="s">
+      <c r="C82" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46" t="s">
+      <c r="D82" s="36"/>
+      <c r="E82" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="46" t="s">
+      <c r="F82" s="36"/>
+      <c r="G82" s="45" t="s">
         <v>338</v>
+      </c>
+      <c r="H82" s="45" t="s">
+        <v>339</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -10780,25 +10807,25 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="83" t="s">
-        <v>333</v>
-      </c>
-      <c r="B83" s="84" t="s">
+      <c r="A83" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="B83" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="85"/>
-      <c r="E83" s="86" t="s">
+      <c r="C83" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="F83" s="87"/>
-      <c r="G83" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="H83" s="85" t="s">
+      <c r="D83" s="36"/>
+      <c r="E83" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="F83" s="59"/>
+      <c r="G83" s="86" t="s">
         <v>340</v>
+      </c>
+      <c r="H83" s="86" t="s">
+        <v>341</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -10812,32 +10839,32 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="B84" s="39" t="s">
+      <c r="A84" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="B84" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="C84" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="E84" s="52" t="s">
+      <c r="D84" s="35" t="s">
         <v>345</v>
       </c>
+      <c r="E84" s="53" t="s">
+        <v>346</v>
+      </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="4" t="s">
-        <v>346</v>
+      <c r="G84" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="K84" s="7" t="s">
-        <v>348</v>
+      <c r="K84" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
@@ -10848,21 +10875,21 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="B85" s="45"/>
+      <c r="A85" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B85" s="88"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>350</v>
+      <c r="E85" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4" t="s">
-        <v>351</v>
+      <c r="G85" s="35" t="s">
+        <v>352</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -10876,32 +10903,32 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="B86" s="39" t="s">
+      <c r="A86" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="B86" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="C86" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="52" t="s">
+      <c r="D86" s="35" t="s">
         <v>357</v>
       </c>
+      <c r="E86" s="53" t="s">
+        <v>358</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4" t="s">
-        <v>358</v>
+      <c r="G86" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="H86" s="35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="K86" s="7" t="s">
-        <v>348</v>
+      <c r="K86" s="38" t="s">
+        <v>349</v>
       </c>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
@@ -10912,69 +10939,69 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="B87" s="45"/>
+      <c r="A87" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B87" s="88"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="7" t="s">
-        <v>361</v>
+      <c r="E87" s="38" t="s">
+        <v>362</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H87" s="70" t="s">
-        <v>362</v>
+      <c r="G87" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>363</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="B88" s="39" t="s">
+      <c r="A88" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="B88" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="C88" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E88" s="52" t="s">
-        <v>365</v>
+      <c r="D88" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="E88" s="53" t="s">
+        <v>366</v>
       </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="4" t="s">
-        <v>358</v>
+      <c r="G88" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="H88" s="35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="B89" s="45"/>
+      <c r="A89" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B89" s="88"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>368</v>
+      <c r="E89" s="35" t="s">
+        <v>369</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
-        <v>351</v>
+      <c r="G89" s="35" t="s">
+        <v>352</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -10982,10 +11009,10 @@
     </row>
     <row r="90">
       <c r="A90" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B90" s="88" t="s">
         <v>371</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>372</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -10998,102 +11025,102 @@
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="B91" s="39" t="s">
+      <c r="A91" s="41" t="s">
         <v>373</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>374</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="35"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="7"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="35"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="B92" s="45" t="s">
+      <c r="A92" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="7" t="s">
+      <c r="C92" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D92" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>376</v>
+      <c r="E92" s="38" t="s">
+        <v>377</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H92" s="70" t="s">
+      <c r="G92" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="H92" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="I92" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="C93" s="89" t="s">
+      <c r="B93" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="D93" s="89" t="s">
+      <c r="C93" s="60" t="s">
         <v>382</v>
       </c>
-      <c r="E93" s="89" t="s">
+      <c r="D93" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89" t="s">
+      <c r="E93" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="H93" s="89" t="s">
+      <c r="F93" s="59"/>
+      <c r="G93" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="I93" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="J93" s="55"/>
+      <c r="H93" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="B94" s="45" t="s">
+      <c r="A94" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="B94" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="35" t="s">
         <v>390</v>
       </c>
+      <c r="E94" s="35" t="s">
+        <v>391</v>
+      </c>
       <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H94" s="59" t="s">
+      <c r="G94" s="35" t="s">
         <v>392</v>
+      </c>
+      <c r="H94" s="61" t="s">
+        <v>393</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -11101,104 +11128,104 @@
     </row>
     <row r="95">
       <c r="A95" s="50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="C95" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="D95" s="35" t="s">
         <v>397</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>398</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="35"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7" t="s">
-        <v>398</v>
+      <c r="K95" s="38" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B96" s="45" t="s">
+      <c r="A96" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="35" t="s">
         <v>403</v>
       </c>
+      <c r="E96" s="35" t="s">
+        <v>404</v>
+      </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="4" t="s">
-        <v>404</v>
+      <c r="G96" s="35" t="s">
+        <v>405</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" s="39" t="s">
+      <c r="A97" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B97" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="52" t="s">
-        <v>407</v>
+      <c r="E97" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="35"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="90" t="s">
-        <v>406</v>
-      </c>
-      <c r="B98" s="91" t="s">
+      <c r="A98" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="52" t="s">
-        <v>407</v>
+      <c r="E98" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="H98" s="59" t="s">
+      <c r="G98" s="61" t="s">
         <v>409</v>
+      </c>
+      <c r="H98" s="61" t="s">
+        <v>410</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="B99" s="45" t="s">
+      <c r="A99" s="43" t="s">
         <v>411</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>412</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -11212,26 +11239,26 @@
     </row>
     <row r="100">
       <c r="A100" s="50" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="C100" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>413</v>
+      <c r="D100" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>414</v>
       </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="4" t="s">
-        <v>414</v>
+      <c r="G100" s="35" t="s">
+        <v>415</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -11239,35 +11266,35 @@
     </row>
     <row r="101">
       <c r="A101" s="50" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B101" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="C101" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>417</v>
+      <c r="D101" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>418</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="35"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="K101" s="7" t="s">
-        <v>398</v>
+      <c r="K101" s="38" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="B102" s="45" t="s">
+      <c r="A102" s="43" t="s">
         <v>419</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>420</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -11281,28 +11308,28 @@
     </row>
     <row r="103">
       <c r="A103" s="50" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B103" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D103" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="E103" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="G103" s="36" t="s">
+      <c r="F103" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="H103" s="60" t="s">
+      <c r="G103" s="45" t="s">
         <v>426</v>
+      </c>
+      <c r="H103" s="62" t="s">
+        <v>427</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -11310,86 +11337,86 @@
     </row>
     <row r="104">
       <c r="A104" s="50" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B104" s="51" t="s">
-        <v>428</v>
-      </c>
-      <c r="C104" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="C104" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="45" t="s">
         <v>431</v>
       </c>
+      <c r="E104" s="35" t="s">
+        <v>432</v>
+      </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="H104" s="92" t="s">
+      <c r="G104" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="H104" s="91" t="s">
+        <v>434</v>
+      </c>
+      <c r="I104" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B105" s="45" t="s">
+      <c r="A105" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="C105" s="36" t="s">
+      <c r="B105" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="D105" s="36" t="s">
+      <c r="C105" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="D105" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>437</v>
+      <c r="E105" s="35" t="s">
+        <v>438</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H105" s="93" t="s">
+      <c r="G105" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="H105" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="I105" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B106" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="C106" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="D106" s="94" t="s">
+      <c r="A106" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="D106" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="61" t="s">
-        <v>437</v>
+      <c r="E106" s="64" t="s">
+        <v>438</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H106" s="95" t="s">
-        <v>441</v>
-      </c>
-      <c r="I106" s="7" t="s">
+      <c r="G106" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="H106" s="93" t="s">
+        <v>442</v>
+      </c>
+      <c r="I106" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J106" s="7"/>
@@ -11397,10 +11424,10 @@
     </row>
     <row r="107">
       <c r="A107" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="B107" s="34" t="s">
         <v>443</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>444</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -11413,56 +11440,56 @@
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="B108" s="39" t="s">
+      <c r="A108" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="C108" s="46" t="s">
+      <c r="B108" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="C108" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="E108" s="96" t="s">
+      <c r="D108" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="F108" s="96"/>
-      <c r="G108" s="97" t="s">
-        <v>377</v>
-      </c>
-      <c r="H108" s="98" t="s">
+      <c r="E108" s="73" t="s">
         <v>449</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="F108" s="94"/>
+      <c r="G108" s="95" t="s">
+        <v>378</v>
+      </c>
+      <c r="H108" s="96" t="s">
+        <v>450</v>
+      </c>
+      <c r="I108" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="38" t="s">
-        <v>450</v>
-      </c>
-      <c r="B109" s="39" t="s">
+      <c r="A109" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="C109" s="99" t="s">
+      <c r="B109" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="D109" s="100" t="s">
+      <c r="C109" s="97" t="s">
         <v>453</v>
       </c>
-      <c r="E109" s="101" t="s">
+      <c r="D109" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="F109" s="101"/>
-      <c r="G109" s="70" t="s">
+      <c r="E109" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="H109" s="102" t="s">
+      <c r="F109" s="94"/>
+      <c r="G109" s="38" t="s">
         <v>456</v>
+      </c>
+      <c r="H109" s="100" t="s">
+        <v>457</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
@@ -11530,303 +11557,303 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="102" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="C2" s="38" t="s">
         <v>396</v>
       </c>
+      <c r="D2" s="38" t="s">
+        <v>397</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="C3" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="60"/>
       <c r="E3" s="35" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="C4" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="60"/>
       <c r="E4" s="35" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="38" t="s">
         <v>396</v>
       </c>
+      <c r="D5" s="38" t="s">
+        <v>397</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
+        <v>466</v>
+      </c>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="B6" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="60" t="s">
         <v>469</v>
       </c>
+      <c r="D6" s="60" t="s">
+        <v>470</v>
+      </c>
       <c r="E6" s="35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C8" s="70" t="s">
         <v>479</v>
       </c>
+      <c r="C8" s="38" t="s">
+        <v>480</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="75" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="76" t="s">
         <v>482</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75" t="s">
-        <v>484</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" s="70" t="s">
         <v>486</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="B10" s="38" t="s">
         <v>487</v>
       </c>
+      <c r="C10" s="104" t="s">
+        <v>488</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="70" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" s="70" t="s">
+      <c r="E10" s="38" t="s">
         <v>489</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="70" t="s">
         <v>491</v>
       </c>
+      <c r="B11" s="38" t="s">
+        <v>492</v>
+      </c>
       <c r="C11" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="70" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="E11" s="38" t="s">
         <v>495</v>
       </c>
+      <c r="F11" s="38" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="76" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="75" t="s">
+      <c r="A12" s="77" t="s">
         <v>497</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="C12" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="D12" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="E12" s="76" t="s">
         <v>501</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" s="70" t="s">
         <v>503</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>504</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="70" t="s">
-        <v>504</v>
-      </c>
-      <c r="F13" s="107" t="s">
+      <c r="E13" s="38" t="s">
         <v>505</v>
       </c>
+      <c r="F13" s="106" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="96" t="s">
-        <v>506</v>
-      </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="58" t="s">
+      <c r="A14" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="E14" s="38" t="s">
         <v>509</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -15807,108 +15834,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="109" t="s">
-        <v>510</v>
-      </c>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="107" t="s">
         <v>511</v>
       </c>
+      <c r="B2" s="108" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="111" t="s">
-        <v>512</v>
-      </c>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>513</v>
       </c>
+      <c r="B3" s="108" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="112" t="s">
-        <v>514</v>
+      <c r="A4" s="110" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="113" t="s">
-        <v>515</v>
-      </c>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>516</v>
       </c>
+      <c r="B6" s="108" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="110" t="s">
-        <v>517</v>
+      <c r="B7" s="108" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="110"/>
+      <c r="B8" s="108"/>
     </row>
     <row r="9">
-      <c r="B9" s="110"/>
+      <c r="B9" s="108"/>
     </row>
     <row r="10">
-      <c r="A10" s="113" t="s">
-        <v>518</v>
+      <c r="A10" s="111" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="113" t="s">
-        <v>519</v>
-      </c>
-      <c r="B11" s="114" t="s">
+      <c r="A11" s="111" t="s">
         <v>520</v>
       </c>
+      <c r="B11" s="112" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="115" t="s">
-        <v>521</v>
+      <c r="B12" s="113" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117" t="s">
-        <v>522</v>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="118" t="s">
-        <v>523</v>
+      <c r="B14" s="116" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="119" t="s">
-        <v>524</v>
+      <c r="B15" s="117" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="120" t="s">
-        <v>525</v>
+      <c r="B16" s="118" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="113"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="113" t="s">
-        <v>526</v>
-      </c>
-      <c r="B18" s="121" t="s">
+      <c r="A18" s="111" t="s">
         <v>527</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="B19" s="122"/>
+        <v>529</v>
+      </c>
+      <c r="B19" s="120"/>
     </row>
     <row r="21">
-      <c r="A21" s="113" t="s">
-        <v>529</v>
-      </c>
-      <c r="B21" s="123" t="s">
+      <c r="A21" s="111" t="s">
         <v>530</v>
+      </c>
+      <c r="B21" s="121" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -15933,48 +15960,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="113" t="s">
-        <v>531</v>
+      <c r="A1" s="111" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="124" t="s">
-        <v>532</v>
+      <c r="A2" s="122" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="110" t="s">
-        <v>533</v>
+      <c r="A3" s="108" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="124" t="s">
-        <v>534</v>
+      <c r="A4" s="122" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="110" t="s">
-        <v>535</v>
+      <c r="A5" s="108" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="110" t="s">
-        <v>536</v>
+      <c r="A6" s="108" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="110" t="s">
-        <v>537</v>
+      <c r="A7" s="108" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="124" t="s">
-        <v>538</v>
+      <c r="A8" s="122" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="110" t="s">
-        <v>539</v>
+      <c r="A9" s="108" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -16000,48 +16027,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>540</v>
+        <v>532</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="126" t="s">
-        <v>541</v>
+      <c r="A2" s="124" t="s">
+        <v>542</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -16060,7 +16087,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="114"/>
+      <c r="A1" s="112"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16084,40 +16111,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="127" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>550</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="C1" s="125" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="126" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -16127,13 +16154,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -16143,287 +16170,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="129" t="s">
-        <v>575</v>
-      </c>
-      <c r="B9" s="130" t="s">
+      <c r="A9" s="127" t="s">
         <v>576</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="128" t="s">
         <v>577</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
+      <c r="C9" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="O9" s="128"/>
+      <c r="P9" s="128"/>
+      <c r="Q9" s="128"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
     </row>
     <row r="10">
-      <c r="A10" s="129" t="s">
-        <v>578</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>576</v>
-      </c>
-      <c r="C10" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="130" t="s">
+      <c r="A10" s="127" t="s">
         <v>579</v>
       </c>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
+      <c r="B10" s="128" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="129"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="129"/>
+      <c r="Z10" s="129"/>
     </row>
     <row r="11">
-      <c r="A11" s="129" t="s">
-        <v>580</v>
-      </c>
-      <c r="B11" s="130" t="s">
+      <c r="A11" s="127" t="s">
         <v>581</v>
       </c>
-      <c r="C11" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D11" s="130" t="s">
+      <c r="B11" s="128" t="s">
         <v>582</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
+      <c r="C11" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>583</v>
+      </c>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="129"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
+      <c r="Y11" s="129"/>
+      <c r="Z11" s="129"/>
     </row>
     <row r="12">
-      <c r="A12" s="129" t="s">
-        <v>583</v>
-      </c>
-      <c r="B12" s="130" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D12" s="130" t="s">
+      <c r="A12" s="127" t="s">
         <v>584</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
+      <c r="B12" s="128" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="129"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="129"/>
+      <c r="U12" s="129"/>
+      <c r="V12" s="129"/>
+      <c r="W12" s="129"/>
+      <c r="X12" s="129"/>
+      <c r="Y12" s="129"/>
+      <c r="Z12" s="129"/>
     </row>
     <row r="13">
-      <c r="A13" s="129" t="s">
-        <v>585</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>560</v>
-      </c>
-      <c r="C13" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D13" s="130" t="s">
+      <c r="A13" s="127" t="s">
         <v>586</v>
       </c>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
+      <c r="B13" s="127" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="129"/>
+      <c r="U13" s="129"/>
+      <c r="V13" s="129"/>
+      <c r="W13" s="129"/>
+      <c r="X13" s="129"/>
+      <c r="Y13" s="129"/>
+      <c r="Z13" s="129"/>
     </row>
     <row r="14">
-      <c r="A14" s="129" t="s">
-        <v>587</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>560</v>
-      </c>
-      <c r="C14" s="130" t="s">
-        <v>557</v>
-      </c>
-      <c r="D14" s="130" t="s">
+      <c r="A14" s="127" t="s">
         <v>588</v>
       </c>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
+      <c r="B14" s="127" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16451,52 +16478,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="132" t="s">
-        <v>549</v>
+      <c r="A1" s="130" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="113" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="113" t="s">
+      <c r="A2" s="111" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="111" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="111" t="s">
         <v>554</v>
       </c>
+      <c r="D2" s="111" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="110" t="s">
-        <v>589</v>
-      </c>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="108" t="s">
         <v>590</v>
       </c>
+      <c r="B3" s="108" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="110" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" s="110" t="s">
+      <c r="A4" s="108" t="s">
         <v>592</v>
       </c>
+      <c r="B4" s="108" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>595</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>593</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" s="133" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>595</v>
+      <c r="D5" s="108" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F08/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F08/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-rc.1</t>
+    <t>2.2.0-rc.2</t>
   </si>
   <si>
     <r>
